--- a/ConsoleApps/ProductTreeIT.xlsx
+++ b/ConsoleApps/ProductTreeIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>&lt;docDate&gt;</t>
   </si>
@@ -38,24 +38,6 @@
   </si>
   <si>
     <t>&lt;system&gt; &lt;subSystem&gt;</t>
-  </si>
-  <si>
-    <t>CDRL N.: &lt;cdrl&gt;</t>
-  </si>
-  <si>
-    <t>&lt;unclassPages&gt;</t>
-  </si>
-  <si>
-    <t>&lt;unclassConPages&gt;</t>
-  </si>
-  <si>
-    <t>&lt;restrPages&gt;</t>
-  </si>
-  <si>
-    <t>&lt;confidPages&gt;</t>
-  </si>
-  <si>
-    <t>&lt;secretPages&gt;</t>
   </si>
   <si>
     <t>&lt;totPages&gt;</t>
@@ -96,9 +78,6 @@
   </si>
   <si>
     <t>REVISIONE DOCUMENTO: &lt;docRev&gt;</t>
-  </si>
-  <si>
-    <t>DATA: &lt;docDate&gt;</t>
   </si>
   <si>
     <t>Cliente : &lt;customer&gt;</t>
@@ -547,6 +526,27 @@
   </si>
   <si>
     <t>Il presente documento descrive l’albero di prodotto della &lt;prodTopItem&gt; , generato per il progetto &lt;projName&gt;</t>
+  </si>
+  <si>
+    <t>Verificatore:</t>
+  </si>
+  <si>
+    <t>Configuration Manager SLS</t>
+  </si>
+  <si>
+    <t>&lt;authorize&gt;</t>
+  </si>
+  <si>
+    <t>PD&amp;CM Engineering</t>
+  </si>
+  <si>
+    <t>DATA: &lt;reportDate&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;cdrl&gt;</t>
+  </si>
+  <si>
+    <t>&lt;reportDate&gt;</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -890,7 +890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -948,6 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1044,21 +1046,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,8 +1115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,6 +1168,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1189,9 +1188,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A388" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K346" sqref="K346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1849,22 +1845,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1872,13 +1868,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1893,20 +1889,20 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="A5" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1914,83 +1910,83 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="A7" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="A9" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="C14" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="C14" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,16 +2003,16 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2032,68 +2028,68 @@
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="13"/>
@@ -2108,16 +2104,16 @@
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="C24" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,16 +2129,16 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
+      <c r="C26" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,128 +2168,118 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="B33" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="69"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
+      <c r="B40" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2301,7 @@
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -2331,54 +2317,54 @@
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
+      <c r="F48" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -2386,15 +2372,15 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="91" t="s">
+      <c r="F50" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -2402,29 +2388,29 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
     </row>
     <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F53" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="90"/>
+      <c r="F53" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="91"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2453,13 +2439,13 @@
       <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
+      <c r="A56" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="89"/>
       <c r="G56" s="13"/>
       <c r="H56" s="26"/>
@@ -2469,78 +2455,86 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
+      <c r="A57" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="86"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="A60" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
+      <c r="A61" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="86"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
@@ -2557,45 +2551,45 @@
       <c r="L62" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E65" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
+      <c r="E65" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E66" s="28"/>
+      <c r="E66" s="27"/>
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="100"/>
+      <c r="A67" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="100"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="101"/>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
+      <c r="A68" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
       <c r="F68" s="89"/>
       <c r="G68" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -2604,50 +2598,50 @@
       <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="89"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="89"/>
-    </row>
-    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="86"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
       <c r="L70" s="89"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
+      <c r="A71" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="83"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2656,26 +2650,26 @@
       <c r="L71" s="20"/>
     </row>
     <row r="96" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F96" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="87"/>
-      <c r="K96" s="87"/>
-      <c r="L96" s="87"/>
+      <c r="F96" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="90"/>
+      <c r="J96" s="90"/>
+      <c r="K96" s="90"/>
+      <c r="L96" s="90"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F97" s="87" t="s">
+      <c r="F97" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G97" s="87"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
-      <c r="K97" s="87"/>
-      <c r="L97" s="87"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="90"/>
+      <c r="J97" s="90"/>
+      <c r="K97" s="90"/>
+      <c r="L97" s="90"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
@@ -2683,15 +2677,15 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="91" t="s">
+      <c r="F98" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="91"/>
-      <c r="H98" s="91"/>
-      <c r="I98" s="91"/>
-      <c r="J98" s="91"/>
-      <c r="K98" s="91"/>
-      <c r="L98" s="91"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="92"/>
+      <c r="L98" s="92"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
@@ -2699,13 +2693,13 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="91"/>
-      <c r="J99" s="91"/>
-      <c r="K99" s="91"/>
-      <c r="L99" s="91"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
+      <c r="L99" s="92"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
@@ -2722,125 +2716,125 @@
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D101" s="95" t="s">
+      <c r="D101" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="103"/>
+      <c r="C103" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="103"/>
+      <c r="E103" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="103"/>
+      <c r="G103" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="104"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" s="104"/>
+      <c r="L103" s="103"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="95"/>
-    </row>
-    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="101" t="s">
+      <c r="D104" s="105"/>
+      <c r="E104" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="102"/>
-      <c r="C103" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="102"/>
-      <c r="E103" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" s="102"/>
-      <c r="G103" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="H103" s="103"/>
-      <c r="I103" s="102"/>
-      <c r="J103" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103" s="103"/>
-      <c r="L103" s="102"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="104"/>
-      <c r="G104" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="104"/>
-      <c r="L104" s="104"/>
+      <c r="H104" s="105"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="104"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="104"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="104"/>
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="104"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="104"/>
-      <c r="J107" s="104"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="105"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="105"/>
+      <c r="J107" s="105"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F145" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G145" s="87"/>
-      <c r="H145" s="87"/>
-      <c r="I145" s="87"/>
-      <c r="J145" s="87"/>
-      <c r="K145" s="87"/>
-      <c r="L145" s="87"/>
+      <c r="F145" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" s="90"/>
+      <c r="H145" s="90"/>
+      <c r="I145" s="90"/>
+      <c r="J145" s="90"/>
+      <c r="K145" s="90"/>
+      <c r="L145" s="90"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F146" s="87" t="s">
+      <c r="F146" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="87"/>
-      <c r="H146" s="87"/>
-      <c r="I146" s="87"/>
-      <c r="J146" s="87"/>
-      <c r="K146" s="87"/>
-      <c r="L146" s="87"/>
+      <c r="G146" s="90"/>
+      <c r="H146" s="90"/>
+      <c r="I146" s="90"/>
+      <c r="J146" s="90"/>
+      <c r="K146" s="90"/>
+      <c r="L146" s="90"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
@@ -2848,15 +2842,15 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="91" t="s">
+      <c r="F147" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G147" s="91"/>
-      <c r="H147" s="91"/>
-      <c r="I147" s="91"/>
-      <c r="J147" s="91"/>
-      <c r="K147" s="91"/>
-      <c r="L147" s="91"/>
+      <c r="G147" s="92"/>
+      <c r="H147" s="92"/>
+      <c r="I147" s="92"/>
+      <c r="J147" s="92"/>
+      <c r="K147" s="92"/>
+      <c r="L147" s="92"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
@@ -2864,13 +2858,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="91"/>
-      <c r="G148" s="91"/>
-      <c r="H148" s="91"/>
-      <c r="I148" s="91"/>
-      <c r="J148" s="91"/>
-      <c r="K148" s="91"/>
-      <c r="L148" s="91"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="92"/>
+      <c r="H148" s="92"/>
+      <c r="I148" s="92"/>
+      <c r="J148" s="92"/>
+      <c r="K148" s="92"/>
+      <c r="L148" s="92"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
@@ -2887,235 +2881,235 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E150" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150" s="95"/>
-      <c r="G150" s="95"/>
+      <c r="E150" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="96"/>
+      <c r="G150" s="96"/>
     </row>
     <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="35">
+      <c r="A152" s="34">
         <v>1</v>
       </c>
-      <c r="B152" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="105"/>
-      <c r="D152" s="138"/>
-      <c r="E152" s="138"/>
-      <c r="F152" s="138"/>
-      <c r="G152" s="138"/>
-      <c r="H152" s="138"/>
-      <c r="I152" s="138"/>
-      <c r="J152" s="138"/>
-      <c r="K152" s="138"/>
-      <c r="L152" s="50">
+      <c r="B152" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="106"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="54"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="49">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
+      <c r="A153" s="35"/>
       <c r="B153" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="52"/>
-      <c r="L153" s="49">
+        <v>45</v>
+      </c>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="29">
+      <c r="A154" s="28">
         <v>2</v>
       </c>
-      <c r="B154" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C154" s="51"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="137"/>
-      <c r="F154" s="137"/>
-      <c r="G154" s="137"/>
-      <c r="H154" s="137"/>
-      <c r="I154" s="137"/>
-      <c r="J154" s="137"/>
-      <c r="K154" s="137"/>
-      <c r="L154" s="50">
+      <c r="B154" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="53"/>
+      <c r="I154" s="53"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="53"/>
+      <c r="L154" s="49">
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="1">
         <v>2.1</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="52"/>
-      <c r="L155" s="49">
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="51"/>
+      <c r="L155" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="52"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="52"/>
-      <c r="K156" s="52"/>
-      <c r="L156" s="49">
+      <c r="F156" s="51"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="51"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
+      <c r="L156" s="48">
         <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="29">
+      <c r="A157" s="28">
         <v>3</v>
       </c>
-      <c r="B157" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C157" s="51"/>
-      <c r="D157" s="51"/>
-      <c r="E157" s="136"/>
-      <c r="F157" s="136"/>
-      <c r="G157" s="136"/>
-      <c r="H157" s="136"/>
-      <c r="I157" s="136"/>
-      <c r="J157" s="136"/>
-      <c r="K157" s="136"/>
-      <c r="L157" s="50">
+      <c r="B157" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="52"/>
+      <c r="L157" s="49">
         <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="30"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="1">
         <v>3.1</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D158" s="18"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="52"/>
-      <c r="L158" s="49">
+      <c r="E158" s="51"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="51"/>
+      <c r="K158" s="51"/>
+      <c r="L158" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E162" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="F162" s="95"/>
-      <c r="G162" s="95"/>
+      <c r="E162" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="96"/>
+      <c r="G162" s="96"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" s="108"/>
-      <c r="C164" s="108"/>
-      <c r="D164" s="108"/>
-      <c r="E164" s="108"/>
-      <c r="F164" s="108"/>
-      <c r="G164" s="108"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="52"/>
-      <c r="J164" s="52"/>
-      <c r="K164" s="52"/>
-      <c r="L164" s="49">
+      <c r="A164" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="109"/>
+      <c r="C164" s="109"/>
+      <c r="D164" s="109"/>
+      <c r="E164" s="109"/>
+      <c r="F164" s="109"/>
+      <c r="G164" s="109"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L165" s="49"/>
+      <c r="L165" s="48"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L166" s="49"/>
+      <c r="L166" s="48"/>
     </row>
     <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D167" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="E167" s="95"/>
-      <c r="F167" s="95"/>
-      <c r="G167" s="95"/>
-      <c r="H167" s="95"/>
-      <c r="L167" s="49"/>
+      <c r="D167" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E167" s="96"/>
+      <c r="F167" s="96"/>
+      <c r="G167" s="96"/>
+      <c r="H167" s="96"/>
+      <c r="L167" s="48"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L168" s="49"/>
+      <c r="L168" s="48"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="138"/>
-      <c r="K169" s="52"/>
-      <c r="L169" s="49">
+      <c r="A169" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="48">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F194" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G194" s="87"/>
-      <c r="H194" s="87"/>
-      <c r="I194" s="87"/>
-      <c r="J194" s="87"/>
-      <c r="K194" s="87"/>
-      <c r="L194" s="87"/>
+      <c r="F194" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G194" s="90"/>
+      <c r="H194" s="90"/>
+      <c r="I194" s="90"/>
+      <c r="J194" s="90"/>
+      <c r="K194" s="90"/>
+      <c r="L194" s="90"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F195" s="87" t="s">
+      <c r="F195" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G195" s="87"/>
-      <c r="H195" s="87"/>
-      <c r="I195" s="87"/>
-      <c r="J195" s="87"/>
-      <c r="K195" s="87"/>
-      <c r="L195" s="87"/>
+      <c r="G195" s="90"/>
+      <c r="H195" s="90"/>
+      <c r="I195" s="90"/>
+      <c r="J195" s="90"/>
+      <c r="K195" s="90"/>
+      <c r="L195" s="90"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
@@ -3123,15 +3117,15 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="91" t="s">
+      <c r="F196" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G196" s="91"/>
-      <c r="H196" s="91"/>
-      <c r="I196" s="91"/>
-      <c r="J196" s="91"/>
-      <c r="K196" s="91"/>
-      <c r="L196" s="91"/>
+      <c r="G196" s="92"/>
+      <c r="H196" s="92"/>
+      <c r="I196" s="92"/>
+      <c r="J196" s="92"/>
+      <c r="K196" s="92"/>
+      <c r="L196" s="92"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
@@ -3139,652 +3133,652 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="91"/>
-      <c r="G197" s="91"/>
-      <c r="H197" s="91"/>
-      <c r="I197" s="91"/>
-      <c r="J197" s="91"/>
-      <c r="K197" s="91"/>
-      <c r="L197" s="91"/>
+      <c r="F197" s="92"/>
+      <c r="G197" s="92"/>
+      <c r="H197" s="92"/>
+      <c r="I197" s="92"/>
+      <c r="J197" s="92"/>
+      <c r="K197" s="92"/>
+      <c r="L197" s="92"/>
     </row>
     <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="36">
+      <c r="A199" s="35">
         <v>1</v>
       </c>
-      <c r="B199" s="106" t="s">
+      <c r="B199" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" s="107"/>
+      <c r="D199" s="107"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B200" s="55"/>
+      <c r="C200" s="55"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="55"/>
+      <c r="G200" s="55"/>
+      <c r="H200" s="55"/>
+      <c r="I200" s="55"/>
+      <c r="J200" s="55"/>
+      <c r="K200" s="55"/>
+      <c r="L200" s="55"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="55"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="55"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="55"/>
+      <c r="G201" s="55"/>
+      <c r="H201" s="55"/>
+      <c r="I201" s="55"/>
+      <c r="J201" s="55"/>
+      <c r="K201" s="55"/>
+      <c r="L201" s="55"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="55"/>
+      <c r="C202" s="55"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="55"/>
+      <c r="I202" s="55"/>
+      <c r="J202" s="55"/>
+      <c r="K202" s="55"/>
+      <c r="L202" s="55"/>
+    </row>
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B204" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204" s="107"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205" s="55"/>
+      <c r="C205" s="55"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="55"/>
+      <c r="G205" s="55"/>
+      <c r="H205" s="55"/>
+      <c r="I205" s="55"/>
+      <c r="J205" s="55"/>
+      <c r="K205" s="55"/>
+      <c r="L205" s="55"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="55"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="55"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="55"/>
+      <c r="G206" s="55"/>
+      <c r="H206" s="55"/>
+      <c r="I206" s="55"/>
+      <c r="J206" s="55"/>
+      <c r="K206" s="55"/>
+      <c r="L206" s="55"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" s="55"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="55"/>
+      <c r="I207" s="55"/>
+      <c r="J207" s="55"/>
+      <c r="K207" s="55"/>
+      <c r="L207" s="55"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="55"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="55"/>
+      <c r="I208" s="55"/>
+      <c r="J208" s="55"/>
+      <c r="K208" s="55"/>
+      <c r="L208" s="55"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="55"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="55"/>
+      <c r="D209" s="55"/>
+      <c r="E209" s="55"/>
+      <c r="F209" s="55"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="55"/>
+      <c r="I209" s="55"/>
+      <c r="J209" s="55"/>
+      <c r="K209" s="55"/>
+      <c r="L209" s="55"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" s="55"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="55"/>
+      <c r="D210" s="55"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="55"/>
+      <c r="G210" s="55"/>
+      <c r="H210" s="55"/>
+      <c r="I210" s="55"/>
+      <c r="J210" s="55"/>
+      <c r="K210" s="55"/>
+      <c r="L210" s="55"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="55"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="55"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="55"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="55"/>
+      <c r="K211" s="55"/>
+      <c r="L211" s="55"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="55"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="55"/>
+      <c r="G212" s="55"/>
+      <c r="H212" s="55"/>
+      <c r="I212" s="55"/>
+      <c r="J212" s="55"/>
+      <c r="K212" s="55"/>
+      <c r="L212" s="55"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" s="55"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="55"/>
+      <c r="D213" s="55"/>
+      <c r="E213" s="55"/>
+      <c r="F213" s="55"/>
+      <c r="G213" s="55"/>
+      <c r="H213" s="55"/>
+      <c r="I213" s="55"/>
+      <c r="J213" s="55"/>
+      <c r="K213" s="55"/>
+      <c r="L213" s="55"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" s="55"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="55"/>
+      <c r="D214" s="55"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="55"/>
+      <c r="G214" s="55"/>
+      <c r="H214" s="55"/>
+      <c r="I214" s="55"/>
+      <c r="J214" s="55"/>
+      <c r="K214" s="55"/>
+      <c r="L214" s="55"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C216" s="114"/>
+      <c r="D216" s="114"/>
+      <c r="E216" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" s="114"/>
+      <c r="G216" s="114"/>
+      <c r="H216" s="114"/>
+      <c r="I216" s="114"/>
+      <c r="J216" s="114"/>
+      <c r="K216" s="114"/>
+      <c r="L216" s="114"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" s="37">
+        <v>1</v>
+      </c>
+      <c r="B217" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C199" s="106"/>
-      <c r="D199" s="106"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="107" t="s">
+      <c r="C217" s="115"/>
+      <c r="D217" s="115"/>
+      <c r="E217" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="116"/>
+      <c r="G217" s="116"/>
+      <c r="H217" s="116"/>
+      <c r="I217" s="116"/>
+      <c r="J217" s="116"/>
+      <c r="K217" s="116"/>
+      <c r="L217" s="116"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="37">
+        <v>2</v>
+      </c>
+      <c r="B218" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C218" s="115"/>
+      <c r="D218" s="115"/>
+      <c r="E218" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F218" s="116"/>
+      <c r="G218" s="116"/>
+      <c r="H218" s="116"/>
+      <c r="I218" s="116"/>
+      <c r="J218" s="116"/>
+      <c r="K218" s="116"/>
+      <c r="L218" s="116"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" s="110">
+        <v>3</v>
+      </c>
+      <c r="B219" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="110"/>
+      <c r="D219" s="110"/>
+      <c r="E219" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" s="111"/>
+      <c r="G219" s="111"/>
+      <c r="H219" s="111"/>
+      <c r="I219" s="111"/>
+      <c r="J219" s="111"/>
+      <c r="K219" s="111"/>
+      <c r="L219" s="111"/>
+    </row>
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="110"/>
+      <c r="B220" s="110"/>
+      <c r="C220" s="110"/>
+      <c r="D220" s="110"/>
+      <c r="E220" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F220" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G220" s="40"/>
+      <c r="H220" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I220" s="112"/>
+      <c r="J220" s="112"/>
+      <c r="K220" s="112"/>
+      <c r="L220" s="113"/>
+    </row>
+    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="110"/>
+      <c r="B221" s="110"/>
+      <c r="C221" s="110"/>
+      <c r="D221" s="110"/>
+      <c r="E221" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F221" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G221" s="40"/>
+      <c r="H221" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I221" s="112"/>
+      <c r="J221" s="112"/>
+      <c r="K221" s="112"/>
+      <c r="L221" s="113"/>
+    </row>
+    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="110"/>
+      <c r="B222" s="110"/>
+      <c r="C222" s="110"/>
+      <c r="D222" s="110"/>
+      <c r="E222" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F222" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G222" s="40"/>
+      <c r="H222" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="I222" s="117"/>
+      <c r="J222" s="117"/>
+      <c r="K222" s="117"/>
+      <c r="L222" s="118"/>
+    </row>
+    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="110"/>
+      <c r="B223" s="110"/>
+      <c r="C223" s="110"/>
+      <c r="D223" s="110"/>
+      <c r="E223" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F223" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" s="40"/>
+      <c r="H223" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I223" s="112"/>
+      <c r="J223" s="112"/>
+      <c r="K223" s="112"/>
+      <c r="L223" s="113"/>
+    </row>
+    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="110"/>
+      <c r="B224" s="110"/>
+      <c r="C224" s="110"/>
+      <c r="D224" s="110"/>
+      <c r="E224" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F224" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G224" s="40"/>
+      <c r="H224" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I224" s="112"/>
+      <c r="J224" s="112"/>
+      <c r="K224" s="112"/>
+      <c r="L224" s="113"/>
+    </row>
+    <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="110"/>
+      <c r="B225" s="110"/>
+      <c r="C225" s="110"/>
+      <c r="D225" s="110"/>
+      <c r="E225" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F225" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G225" s="40"/>
+      <c r="H225" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225" s="112"/>
+      <c r="J225" s="112"/>
+      <c r="K225" s="112"/>
+      <c r="L225" s="113"/>
+    </row>
+    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="110"/>
+      <c r="B226" s="110"/>
+      <c r="C226" s="110"/>
+      <c r="D226" s="110"/>
+      <c r="E226" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F226" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G226" s="41"/>
+      <c r="H226" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226" s="129"/>
+      <c r="J226" s="129"/>
+      <c r="K226" s="129"/>
+      <c r="L226" s="130"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="38">
+        <v>4</v>
+      </c>
+      <c r="B227" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C227" s="66"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="F227" s="120"/>
+      <c r="G227" s="120"/>
+      <c r="H227" s="120"/>
+      <c r="I227" s="120"/>
+      <c r="J227" s="120"/>
+      <c r="K227" s="120"/>
+      <c r="L227" s="120"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="119">
+        <v>5</v>
+      </c>
+      <c r="B228" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" s="119"/>
+      <c r="D228" s="119"/>
+      <c r="E228" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="F228" s="116"/>
+      <c r="G228" s="116"/>
+      <c r="H228" s="116"/>
+      <c r="I228" s="116"/>
+      <c r="J228" s="116"/>
+      <c r="K228" s="116"/>
+      <c r="L228" s="116"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="119"/>
+      <c r="B229" s="119"/>
+      <c r="C229" s="119"/>
+      <c r="D229" s="119"/>
+      <c r="E229" s="116"/>
+      <c r="F229" s="116"/>
+      <c r="G229" s="116"/>
+      <c r="H229" s="116"/>
+      <c r="I229" s="116"/>
+      <c r="J229" s="116"/>
+      <c r="K229" s="116"/>
+      <c r="L229" s="116"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" s="38">
+        <v>6</v>
+      </c>
+      <c r="B230" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C230" s="66"/>
+      <c r="D230" s="66"/>
+      <c r="E230" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="F230" s="116"/>
+      <c r="G230" s="116"/>
+      <c r="H230" s="116"/>
+      <c r="I230" s="116"/>
+      <c r="J230" s="116"/>
+      <c r="K230" s="116"/>
+      <c r="L230" s="116"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" s="38">
+        <v>7</v>
+      </c>
+      <c r="B231" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C231" s="66"/>
+      <c r="D231" s="66"/>
+      <c r="E231" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="F231" s="116"/>
+      <c r="G231" s="116"/>
+      <c r="H231" s="116"/>
+      <c r="I231" s="116"/>
+      <c r="J231" s="116"/>
+      <c r="K231" s="116"/>
+      <c r="L231" s="116"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" s="119">
+        <v>8</v>
+      </c>
+      <c r="B232" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C232" s="119"/>
+      <c r="D232" s="119"/>
+      <c r="E232" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" s="116"/>
+      <c r="G232" s="116"/>
+      <c r="H232" s="116"/>
+      <c r="I232" s="116"/>
+      <c r="J232" s="116"/>
+      <c r="K232" s="116"/>
+      <c r="L232" s="116"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" s="119"/>
+      <c r="B233" s="119"/>
+      <c r="C233" s="119"/>
+      <c r="D233" s="119"/>
+      <c r="E233" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F233" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G233" s="128"/>
+      <c r="H233" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="I233" s="126"/>
+      <c r="J233" s="126"/>
+      <c r="K233" s="126"/>
+      <c r="L233" s="127"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="119"/>
+      <c r="B234" s="119"/>
+      <c r="C234" s="119"/>
+      <c r="D234" s="119"/>
+      <c r="E234" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F234" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="G234" s="128"/>
+      <c r="H234" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="I234" s="126"/>
+      <c r="J234" s="126"/>
+      <c r="K234" s="126"/>
+      <c r="L234" s="127"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="39">
+        <v>9</v>
+      </c>
+      <c r="B235" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235" s="125"/>
+      <c r="D235" s="125"/>
+      <c r="E235" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="F235" s="116"/>
+      <c r="G235" s="116"/>
+      <c r="H235" s="116"/>
+      <c r="I235" s="116"/>
+      <c r="J235" s="116"/>
+      <c r="K235" s="116"/>
+      <c r="L235" s="116"/>
+    </row>
+    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B236" s="109"/>
+      <c r="C236" s="109"/>
+      <c r="D236" s="109"/>
+      <c r="E236" s="109"/>
+      <c r="F236" s="109"/>
+      <c r="G236" s="109"/>
+      <c r="H236" s="109"/>
+      <c r="I236" s="109"/>
+      <c r="J236" s="109"/>
+      <c r="K236" s="109"/>
+      <c r="L236" s="109"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F243" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B200" s="53"/>
-      <c r="C200" s="53"/>
-      <c r="D200" s="53"/>
-      <c r="E200" s="53"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="53"/>
-      <c r="H200" s="53"/>
-      <c r="I200" s="53"/>
-      <c r="J200" s="53"/>
-      <c r="K200" s="53"/>
-      <c r="L200" s="53"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="53"/>
-      <c r="B201" s="53"/>
-      <c r="C201" s="53"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="53"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="53"/>
-      <c r="H201" s="53"/>
-      <c r="I201" s="53"/>
-      <c r="J201" s="53"/>
-      <c r="K201" s="53"/>
-      <c r="L201" s="53"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B202" s="53"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="53"/>
-      <c r="I202" s="53"/>
-      <c r="J202" s="53"/>
-      <c r="K202" s="53"/>
-      <c r="L202" s="53"/>
-    </row>
-    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B204" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C204" s="106"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B205" s="53"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="53"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="53"/>
-      <c r="I205" s="53"/>
-      <c r="J205" s="53"/>
-      <c r="K205" s="53"/>
-      <c r="L205" s="53"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="53"/>
-      <c r="B206" s="53"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="53"/>
-      <c r="G206" s="53"/>
-      <c r="H206" s="53"/>
-      <c r="I206" s="53"/>
-      <c r="J206" s="53"/>
-      <c r="K206" s="53"/>
-      <c r="L206" s="53"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="53"/>
-      <c r="B207" s="53"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="53"/>
-      <c r="E207" s="53"/>
-      <c r="F207" s="53"/>
-      <c r="G207" s="53"/>
-      <c r="H207" s="53"/>
-      <c r="I207" s="53"/>
-      <c r="J207" s="53"/>
-      <c r="K207" s="53"/>
-      <c r="L207" s="53"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A208" s="53"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="53"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="53"/>
-      <c r="J208" s="53"/>
-      <c r="K208" s="53"/>
-      <c r="L208" s="53"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="53"/>
-      <c r="B209" s="53"/>
-      <c r="C209" s="53"/>
-      <c r="D209" s="53"/>
-      <c r="E209" s="53"/>
-      <c r="F209" s="53"/>
-      <c r="G209" s="53"/>
-      <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="53"/>
-      <c r="L209" s="53"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="53"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="53"/>
-      <c r="E210" s="53"/>
-      <c r="F210" s="53"/>
-      <c r="G210" s="53"/>
-      <c r="H210" s="53"/>
-      <c r="I210" s="53"/>
-      <c r="J210" s="53"/>
-      <c r="K210" s="53"/>
-      <c r="L210" s="53"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="53"/>
-      <c r="D211" s="53"/>
-      <c r="E211" s="53"/>
-      <c r="F211" s="53"/>
-      <c r="G211" s="53"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="53"/>
-      <c r="L211" s="53"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
-      <c r="F212" s="53"/>
-      <c r="G212" s="53"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="53"/>
-      <c r="J212" s="53"/>
-      <c r="K212" s="53"/>
-      <c r="L212" s="53"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="53"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="53"/>
-      <c r="J213" s="53"/>
-      <c r="K213" s="53"/>
-      <c r="L213" s="53"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="53"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="53"/>
-      <c r="E214" s="53"/>
-      <c r="F214" s="53"/>
-      <c r="G214" s="53"/>
-      <c r="H214" s="53"/>
-      <c r="I214" s="53"/>
-      <c r="J214" s="53"/>
-      <c r="K214" s="53"/>
-      <c r="L214" s="53"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B216" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="C216" s="115"/>
-      <c r="D216" s="115"/>
-      <c r="E216" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="F216" s="115"/>
-      <c r="G216" s="115"/>
-      <c r="H216" s="115"/>
-      <c r="I216" s="115"/>
-      <c r="J216" s="115"/>
-      <c r="K216" s="115"/>
-      <c r="L216" s="115"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" s="38">
+      <c r="G243" s="90"/>
+      <c r="H243" s="90"/>
+      <c r="I243" s="90"/>
+      <c r="J243" s="90"/>
+      <c r="K243" s="90"/>
+      <c r="L243" s="90"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F244" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B217" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C217" s="116"/>
-      <c r="D217" s="116"/>
-      <c r="E217" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="F217" s="117"/>
-      <c r="G217" s="117"/>
-      <c r="H217" s="117"/>
-      <c r="I217" s="117"/>
-      <c r="J217" s="117"/>
-      <c r="K217" s="117"/>
-      <c r="L217" s="117"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="38">
-        <v>2</v>
-      </c>
-      <c r="B218" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="C218" s="116"/>
-      <c r="D218" s="116"/>
-      <c r="E218" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="F218" s="117"/>
-      <c r="G218" s="117"/>
-      <c r="H218" s="117"/>
-      <c r="I218" s="117"/>
-      <c r="J218" s="117"/>
-      <c r="K218" s="117"/>
-      <c r="L218" s="117"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="111">
-        <v>3</v>
-      </c>
-      <c r="B219" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C219" s="111"/>
-      <c r="D219" s="111"/>
-      <c r="E219" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="F219" s="112"/>
-      <c r="G219" s="112"/>
-      <c r="H219" s="112"/>
-      <c r="I219" s="112"/>
-      <c r="J219" s="112"/>
-      <c r="K219" s="112"/>
-      <c r="L219" s="112"/>
-    </row>
-    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="111"/>
-      <c r="B220" s="111"/>
-      <c r="C220" s="111"/>
-      <c r="D220" s="111"/>
-      <c r="E220" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F220" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G220" s="41"/>
-      <c r="H220" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="I220" s="113"/>
-      <c r="J220" s="113"/>
-      <c r="K220" s="113"/>
-      <c r="L220" s="114"/>
-    </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="111"/>
-      <c r="B221" s="111"/>
-      <c r="C221" s="111"/>
-      <c r="D221" s="111"/>
-      <c r="E221" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F221" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G221" s="41"/>
-      <c r="H221" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="I221" s="113"/>
-      <c r="J221" s="113"/>
-      <c r="K221" s="113"/>
-      <c r="L221" s="114"/>
-    </row>
-    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="111"/>
-      <c r="B222" s="111"/>
-      <c r="C222" s="111"/>
-      <c r="D222" s="111"/>
-      <c r="E222" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F222" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G222" s="41"/>
-      <c r="H222" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="I222" s="118"/>
-      <c r="J222" s="118"/>
-      <c r="K222" s="118"/>
-      <c r="L222" s="119"/>
-    </row>
-    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="111"/>
-      <c r="B223" s="111"/>
-      <c r="C223" s="111"/>
-      <c r="D223" s="111"/>
-      <c r="E223" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F223" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G223" s="41"/>
-      <c r="H223" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="I223" s="113"/>
-      <c r="J223" s="113"/>
-      <c r="K223" s="113"/>
-      <c r="L223" s="114"/>
-    </row>
-    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="111"/>
-      <c r="B224" s="111"/>
-      <c r="C224" s="111"/>
-      <c r="D224" s="111"/>
-      <c r="E224" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F224" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G224" s="41"/>
-      <c r="H224" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="I224" s="113"/>
-      <c r="J224" s="113"/>
-      <c r="K224" s="113"/>
-      <c r="L224" s="114"/>
-    </row>
-    <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="111"/>
-      <c r="B225" s="111"/>
-      <c r="C225" s="111"/>
-      <c r="D225" s="111"/>
-      <c r="E225" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G225" s="41"/>
-      <c r="H225" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="I225" s="113"/>
-      <c r="J225" s="113"/>
-      <c r="K225" s="113"/>
-      <c r="L225" s="114"/>
-    </row>
-    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="111"/>
-      <c r="B226" s="111"/>
-      <c r="C226" s="111"/>
-      <c r="D226" s="111"/>
-      <c r="E226" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F226" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G226" s="42"/>
-      <c r="H226" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="I226" s="109"/>
-      <c r="J226" s="109"/>
-      <c r="K226" s="109"/>
-      <c r="L226" s="110"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" s="39">
-        <v>4</v>
-      </c>
-      <c r="B227" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="F227" s="121"/>
-      <c r="G227" s="121"/>
-      <c r="H227" s="121"/>
-      <c r="I227" s="121"/>
-      <c r="J227" s="121"/>
-      <c r="K227" s="121"/>
-      <c r="L227" s="121"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="120">
-        <v>5</v>
-      </c>
-      <c r="B228" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="C228" s="120"/>
-      <c r="D228" s="120"/>
-      <c r="E228" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="F228" s="117"/>
-      <c r="G228" s="117"/>
-      <c r="H228" s="117"/>
-      <c r="I228" s="117"/>
-      <c r="J228" s="117"/>
-      <c r="K228" s="117"/>
-      <c r="L228" s="117"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="120"/>
-      <c r="B229" s="120"/>
-      <c r="C229" s="120"/>
-      <c r="D229" s="120"/>
-      <c r="E229" s="117"/>
-      <c r="F229" s="117"/>
-      <c r="G229" s="117"/>
-      <c r="H229" s="117"/>
-      <c r="I229" s="117"/>
-      <c r="J229" s="117"/>
-      <c r="K229" s="117"/>
-      <c r="L229" s="117"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="39">
-        <v>6</v>
-      </c>
-      <c r="B230" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="F230" s="117"/>
-      <c r="G230" s="117"/>
-      <c r="H230" s="117"/>
-      <c r="I230" s="117"/>
-      <c r="J230" s="117"/>
-      <c r="K230" s="117"/>
-      <c r="L230" s="117"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A231" s="39">
-        <v>7</v>
-      </c>
-      <c r="B231" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="F231" s="117"/>
-      <c r="G231" s="117"/>
-      <c r="H231" s="117"/>
-      <c r="I231" s="117"/>
-      <c r="J231" s="117"/>
-      <c r="K231" s="117"/>
-      <c r="L231" s="117"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="120">
-        <v>8</v>
-      </c>
-      <c r="B232" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C232" s="120"/>
-      <c r="D232" s="120"/>
-      <c r="E232" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="F232" s="117"/>
-      <c r="G232" s="117"/>
-      <c r="H232" s="117"/>
-      <c r="I232" s="117"/>
-      <c r="J232" s="117"/>
-      <c r="K232" s="117"/>
-      <c r="L232" s="117"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="120"/>
-      <c r="B233" s="120"/>
-      <c r="C233" s="120"/>
-      <c r="D233" s="120"/>
-      <c r="E233" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F233" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="G233" s="129"/>
-      <c r="H233" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="I233" s="127"/>
-      <c r="J233" s="127"/>
-      <c r="K233" s="127"/>
-      <c r="L233" s="128"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="120"/>
-      <c r="B234" s="120"/>
-      <c r="C234" s="120"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F234" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="G234" s="129"/>
-      <c r="H234" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="I234" s="127"/>
-      <c r="J234" s="127"/>
-      <c r="K234" s="127"/>
-      <c r="L234" s="128"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="40">
-        <v>9</v>
-      </c>
-      <c r="B235" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="C235" s="126"/>
-      <c r="D235" s="126"/>
-      <c r="E235" s="122" t="s">
-        <v>127</v>
-      </c>
-      <c r="F235" s="117"/>
-      <c r="G235" s="117"/>
-      <c r="H235" s="117"/>
-      <c r="I235" s="117"/>
-      <c r="J235" s="117"/>
-      <c r="K235" s="117"/>
-      <c r="L235" s="117"/>
-    </row>
-    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B236" s="108"/>
-      <c r="C236" s="108"/>
-      <c r="D236" s="108"/>
-      <c r="E236" s="108"/>
-      <c r="F236" s="108"/>
-      <c r="G236" s="108"/>
-      <c r="H236" s="108"/>
-      <c r="I236" s="108"/>
-      <c r="J236" s="108"/>
-      <c r="K236" s="108"/>
-      <c r="L236" s="108"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F243" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G243" s="87"/>
-      <c r="H243" s="87"/>
-      <c r="I243" s="87"/>
-      <c r="J243" s="87"/>
-      <c r="K243" s="87"/>
-      <c r="L243" s="87"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F244" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="G244" s="87"/>
-      <c r="H244" s="87"/>
-      <c r="I244" s="87"/>
-      <c r="J244" s="87"/>
-      <c r="K244" s="87"/>
-      <c r="L244" s="87"/>
+      <c r="G244" s="90"/>
+      <c r="H244" s="90"/>
+      <c r="I244" s="90"/>
+      <c r="J244" s="90"/>
+      <c r="K244" s="90"/>
+      <c r="L244" s="90"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
@@ -3792,15 +3786,15 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
-      <c r="F245" s="91" t="s">
+      <c r="F245" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G245" s="91"/>
-      <c r="H245" s="91"/>
-      <c r="I245" s="91"/>
-      <c r="J245" s="91"/>
-      <c r="K245" s="91"/>
-      <c r="L245" s="91"/>
+      <c r="G245" s="92"/>
+      <c r="H245" s="92"/>
+      <c r="I245" s="92"/>
+      <c r="J245" s="92"/>
+      <c r="K245" s="92"/>
+      <c r="L245" s="92"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
@@ -3808,297 +3802,297 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="91"/>
-      <c r="G246" s="91"/>
-      <c r="H246" s="91"/>
-      <c r="I246" s="91"/>
-      <c r="J246" s="91"/>
-      <c r="K246" s="91"/>
-      <c r="L246" s="91"/>
+      <c r="F246" s="92"/>
+      <c r="G246" s="92"/>
+      <c r="H246" s="92"/>
+      <c r="I246" s="92"/>
+      <c r="J246" s="92"/>
+      <c r="K246" s="92"/>
+      <c r="L246" s="92"/>
     </row>
     <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A248" s="36">
+      <c r="A248" s="35">
         <v>2</v>
       </c>
-      <c r="B248" s="106" t="s">
+      <c r="B248" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C248" s="107"/>
+      <c r="D248" s="107"/>
+      <c r="E248" s="107"/>
+    </row>
+    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="35">
+        <v>2.1</v>
+      </c>
+      <c r="B250" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C250" s="107"/>
+      <c r="D250" s="107"/>
+      <c r="E250" s="107"/>
+    </row>
+    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B252" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="123"/>
+      <c r="D252" s="124"/>
+      <c r="E252" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F252" s="123"/>
+      <c r="G252" s="123"/>
+      <c r="H252" s="123"/>
+      <c r="I252" s="123"/>
+      <c r="J252" s="123"/>
+      <c r="K252" s="123"/>
+      <c r="L252" s="124"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B253" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C253" s="131"/>
+      <c r="D253" s="131"/>
+      <c r="E253" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="F253" s="116"/>
+      <c r="G253" s="116"/>
+      <c r="H253" s="116"/>
+      <c r="I253" s="116"/>
+      <c r="J253" s="116"/>
+      <c r="K253" s="116"/>
+      <c r="L253" s="116"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A254" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B254" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C254" s="131"/>
+      <c r="D254" s="131"/>
+      <c r="E254" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="F254" s="116"/>
+      <c r="G254" s="116"/>
+      <c r="H254" s="116"/>
+      <c r="I254" s="116"/>
+      <c r="J254" s="116"/>
+      <c r="K254" s="116"/>
+      <c r="L254" s="116"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A255" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C248" s="106"/>
-      <c r="D248" s="106"/>
-      <c r="E248" s="106"/>
-    </row>
-    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A250" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="B250" s="106" t="s">
+      <c r="B255" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C255" s="131"/>
+      <c r="D255" s="131"/>
+      <c r="E255" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="F255" s="116"/>
+      <c r="G255" s="116"/>
+      <c r="H255" s="116"/>
+      <c r="I255" s="116"/>
+      <c r="J255" s="116"/>
+      <c r="K255" s="116"/>
+      <c r="L255" s="116"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C250" s="106"/>
-      <c r="D250" s="106"/>
-      <c r="E250" s="106"/>
-    </row>
-    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A252" s="43" t="s">
+      <c r="B256" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="C256" s="131"/>
+      <c r="D256" s="131"/>
+      <c r="E256" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256" s="116"/>
+      <c r="G256" s="116"/>
+      <c r="H256" s="116"/>
+      <c r="I256" s="116"/>
+      <c r="J256" s="116"/>
+      <c r="K256" s="116"/>
+      <c r="L256" s="116"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A257" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B252" s="123" t="s">
+      <c r="B257" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C257" s="131"/>
+      <c r="D257" s="131"/>
+      <c r="E257" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F257" s="116"/>
+      <c r="G257" s="116"/>
+      <c r="H257" s="116"/>
+      <c r="I257" s="116"/>
+      <c r="J257" s="116"/>
+      <c r="K257" s="116"/>
+      <c r="L257" s="116"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A258" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C252" s="124"/>
-      <c r="D252" s="125"/>
-      <c r="E252" s="123" t="s">
+      <c r="B258" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" s="131"/>
+      <c r="D258" s="131"/>
+      <c r="E258" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="F258" s="116"/>
+      <c r="G258" s="116"/>
+      <c r="H258" s="116"/>
+      <c r="I258" s="116"/>
+      <c r="J258" s="116"/>
+      <c r="K258" s="116"/>
+      <c r="L258" s="116"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F252" s="124"/>
-      <c r="G252" s="124"/>
-      <c r="H252" s="124"/>
-      <c r="I252" s="124"/>
-      <c r="J252" s="124"/>
-      <c r="K252" s="124"/>
-      <c r="L252" s="125"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A253" s="44" t="s">
+      <c r="B259" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="C259" s="131"/>
+      <c r="D259" s="131"/>
+      <c r="E259" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="F259" s="116"/>
+      <c r="G259" s="116"/>
+      <c r="H259" s="116"/>
+      <c r="I259" s="116"/>
+      <c r="J259" s="116"/>
+      <c r="K259" s="116"/>
+      <c r="L259" s="116"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A260" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B253" s="130" t="s">
+      <c r="B260" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="C253" s="130"/>
-      <c r="D253" s="130"/>
-      <c r="E253" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="F253" s="117"/>
-      <c r="G253" s="117"/>
-      <c r="H253" s="117"/>
-      <c r="I253" s="117"/>
-      <c r="J253" s="117"/>
-      <c r="K253" s="117"/>
-      <c r="L253" s="117"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A254" s="44" t="s">
+      <c r="C260" s="131"/>
+      <c r="D260" s="131"/>
+      <c r="E260" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="F260" s="116"/>
+      <c r="G260" s="116"/>
+      <c r="H260" s="116"/>
+      <c r="I260" s="116"/>
+      <c r="J260" s="116"/>
+      <c r="K260" s="116"/>
+      <c r="L260" s="116"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A261" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B254" s="130" t="s">
+      <c r="B261" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="C254" s="130"/>
-      <c r="D254" s="130"/>
-      <c r="E254" s="117" t="s">
+      <c r="C261" s="131"/>
+      <c r="D261" s="131"/>
+      <c r="E261" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="F261" s="116"/>
+      <c r="G261" s="116"/>
+      <c r="H261" s="116"/>
+      <c r="I261" s="116"/>
+      <c r="J261" s="116"/>
+      <c r="K261" s="116"/>
+      <c r="L261" s="116"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A262" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B262" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="C262" s="131"/>
+      <c r="D262" s="131"/>
+      <c r="E262" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F262" s="116"/>
+      <c r="G262" s="116"/>
+      <c r="H262" s="116"/>
+      <c r="I262" s="116"/>
+      <c r="J262" s="116"/>
+      <c r="K262" s="116"/>
+      <c r="L262" s="116"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A263" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B263" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C263" s="131"/>
+      <c r="D263" s="131"/>
+      <c r="E263" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="F254" s="117"/>
-      <c r="G254" s="117"/>
-      <c r="H254" s="117"/>
-      <c r="I254" s="117"/>
-      <c r="J254" s="117"/>
-      <c r="K254" s="117"/>
-      <c r="L254" s="117"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A255" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B255" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C255" s="130"/>
-      <c r="D255" s="130"/>
-      <c r="E255" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="F255" s="117"/>
-      <c r="G255" s="117"/>
-      <c r="H255" s="117"/>
-      <c r="I255" s="117"/>
-      <c r="J255" s="117"/>
-      <c r="K255" s="117"/>
-      <c r="L255" s="117"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A256" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B256" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="C256" s="130"/>
-      <c r="D256" s="130"/>
-      <c r="E256" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="F256" s="117"/>
-      <c r="G256" s="117"/>
-      <c r="H256" s="117"/>
-      <c r="I256" s="117"/>
-      <c r="J256" s="117"/>
-      <c r="K256" s="117"/>
-      <c r="L256" s="117"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A257" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B257" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="C257" s="130"/>
-      <c r="D257" s="130"/>
-      <c r="E257" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="F257" s="117"/>
-      <c r="G257" s="117"/>
-      <c r="H257" s="117"/>
-      <c r="I257" s="117"/>
-      <c r="J257" s="117"/>
-      <c r="K257" s="117"/>
-      <c r="L257" s="117"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A258" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B258" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="C258" s="130"/>
-      <c r="D258" s="130"/>
-      <c r="E258" s="122" t="s">
-        <v>125</v>
-      </c>
-      <c r="F258" s="117"/>
-      <c r="G258" s="117"/>
-      <c r="H258" s="117"/>
-      <c r="I258" s="117"/>
-      <c r="J258" s="117"/>
-      <c r="K258" s="117"/>
-      <c r="L258" s="117"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A259" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B259" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="C259" s="130"/>
-      <c r="D259" s="130"/>
-      <c r="E259" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="F259" s="117"/>
-      <c r="G259" s="117"/>
-      <c r="H259" s="117"/>
-      <c r="I259" s="117"/>
-      <c r="J259" s="117"/>
-      <c r="K259" s="117"/>
-      <c r="L259" s="117"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A260" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B260" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="C260" s="130"/>
-      <c r="D260" s="130"/>
-      <c r="E260" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="F260" s="117"/>
-      <c r="G260" s="117"/>
-      <c r="H260" s="117"/>
-      <c r="I260" s="117"/>
-      <c r="J260" s="117"/>
-      <c r="K260" s="117"/>
-      <c r="L260" s="117"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A261" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B261" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="C261" s="130"/>
-      <c r="D261" s="130"/>
-      <c r="E261" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="F261" s="117"/>
-      <c r="G261" s="117"/>
-      <c r="H261" s="117"/>
-      <c r="I261" s="117"/>
-      <c r="J261" s="117"/>
-      <c r="K261" s="117"/>
-      <c r="L261" s="117"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A262" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B262" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="C262" s="130"/>
-      <c r="D262" s="130"/>
-      <c r="E262" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="F262" s="117"/>
-      <c r="G262" s="117"/>
-      <c r="H262" s="117"/>
-      <c r="I262" s="117"/>
-      <c r="J262" s="117"/>
-      <c r="K262" s="117"/>
-      <c r="L262" s="117"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A263" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B263" s="130" t="s">
-        <v>136</v>
-      </c>
-      <c r="C263" s="130"/>
-      <c r="D263" s="130"/>
-      <c r="E263" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="F263" s="117"/>
-      <c r="G263" s="117"/>
-      <c r="H263" s="117"/>
-      <c r="I263" s="117"/>
-      <c r="J263" s="117"/>
-      <c r="K263" s="117"/>
-      <c r="L263" s="117"/>
+      <c r="F263" s="116"/>
+      <c r="G263" s="116"/>
+      <c r="H263" s="116"/>
+      <c r="I263" s="116"/>
+      <c r="J263" s="116"/>
+      <c r="K263" s="116"/>
+      <c r="L263" s="116"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F292" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G292" s="87"/>
-      <c r="H292" s="87"/>
-      <c r="I292" s="87"/>
-      <c r="J292" s="87"/>
-      <c r="K292" s="87"/>
-      <c r="L292" s="87"/>
+      <c r="F292" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G292" s="90"/>
+      <c r="H292" s="90"/>
+      <c r="I292" s="90"/>
+      <c r="J292" s="90"/>
+      <c r="K292" s="90"/>
+      <c r="L292" s="90"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F293" s="87" t="s">
+      <c r="F293" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G293" s="87"/>
-      <c r="H293" s="87"/>
-      <c r="I293" s="87"/>
-      <c r="J293" s="87"/>
-      <c r="K293" s="87"/>
-      <c r="L293" s="87"/>
+      <c r="G293" s="90"/>
+      <c r="H293" s="90"/>
+      <c r="I293" s="90"/>
+      <c r="J293" s="90"/>
+      <c r="K293" s="90"/>
+      <c r="L293" s="90"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
@@ -4106,15 +4100,15 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
-      <c r="F294" s="91" t="s">
+      <c r="F294" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G294" s="91"/>
-      <c r="H294" s="91"/>
-      <c r="I294" s="91"/>
-      <c r="J294" s="91"/>
-      <c r="K294" s="91"/>
-      <c r="L294" s="91"/>
+      <c r="G294" s="92"/>
+      <c r="H294" s="92"/>
+      <c r="I294" s="92"/>
+      <c r="J294" s="92"/>
+      <c r="K294" s="92"/>
+      <c r="L294" s="92"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
@@ -4122,120 +4116,120 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="91"/>
-      <c r="G295" s="91"/>
-      <c r="H295" s="91"/>
-      <c r="I295" s="91"/>
-      <c r="J295" s="91"/>
-      <c r="K295" s="91"/>
-      <c r="L295" s="91"/>
+      <c r="F295" s="92"/>
+      <c r="G295" s="92"/>
+      <c r="H295" s="92"/>
+      <c r="I295" s="92"/>
+      <c r="J295" s="92"/>
+      <c r="K295" s="92"/>
+      <c r="L295" s="92"/>
     </row>
     <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="36">
+      <c r="A297" s="35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B297" s="106" t="s">
+      <c r="B297" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C297" s="107"/>
+      <c r="D297" s="107"/>
+      <c r="E297" s="107"/>
+    </row>
+    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B299" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" s="123"/>
+      <c r="D299" s="124"/>
+      <c r="E299" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F299" s="123"/>
+      <c r="G299" s="123"/>
+      <c r="H299" s="123"/>
+      <c r="I299" s="123"/>
+      <c r="J299" s="123"/>
+      <c r="K299" s="123"/>
+      <c r="L299" s="124"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A300" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B300" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C300" s="131"/>
+      <c r="D300" s="131"/>
+      <c r="E300" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="F300" s="116"/>
+      <c r="G300" s="116"/>
+      <c r="H300" s="116"/>
+      <c r="I300" s="116"/>
+      <c r="J300" s="116"/>
+      <c r="K300" s="116"/>
+      <c r="L300" s="116"/>
+    </row>
+    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B301" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C301" s="134"/>
+      <c r="D301" s="134"/>
+      <c r="E301" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="C297" s="106"/>
-      <c r="D297" s="106"/>
-      <c r="E297" s="106"/>
-    </row>
-    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A299" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B299" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C299" s="124"/>
-      <c r="D299" s="125"/>
-      <c r="E299" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="F299" s="124"/>
-      <c r="G299" s="124"/>
-      <c r="H299" s="124"/>
-      <c r="I299" s="124"/>
-      <c r="J299" s="124"/>
-      <c r="K299" s="124"/>
-      <c r="L299" s="125"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A300" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B300" s="130" t="s">
-        <v>142</v>
-      </c>
-      <c r="C300" s="130"/>
-      <c r="D300" s="130"/>
-      <c r="E300" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="F300" s="117"/>
-      <c r="G300" s="117"/>
-      <c r="H300" s="117"/>
-      <c r="I300" s="117"/>
-      <c r="J300" s="117"/>
-      <c r="K300" s="117"/>
-      <c r="L300" s="117"/>
-    </row>
-    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="B301" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="C301" s="133"/>
-      <c r="D301" s="133"/>
-      <c r="E301" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="F301" s="134"/>
-      <c r="G301" s="134"/>
-      <c r="H301" s="134"/>
-      <c r="I301" s="134"/>
-      <c r="J301" s="134"/>
-      <c r="K301" s="134"/>
-      <c r="L301" s="134"/>
+      <c r="F301" s="135"/>
+      <c r="G301" s="135"/>
+      <c r="H301" s="135"/>
+      <c r="I301" s="135"/>
+      <c r="J301" s="135"/>
+      <c r="K301" s="135"/>
+      <c r="L301" s="135"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A302" s="132"/>
-      <c r="B302" s="133"/>
-      <c r="C302" s="133"/>
-      <c r="D302" s="133"/>
-      <c r="E302" s="134"/>
-      <c r="F302" s="134"/>
-      <c r="G302" s="134"/>
-      <c r="H302" s="134"/>
-      <c r="I302" s="134"/>
-      <c r="J302" s="134"/>
-      <c r="K302" s="134"/>
-      <c r="L302" s="134"/>
+      <c r="A302" s="133"/>
+      <c r="B302" s="134"/>
+      <c r="C302" s="134"/>
+      <c r="D302" s="134"/>
+      <c r="E302" s="135"/>
+      <c r="F302" s="135"/>
+      <c r="G302" s="135"/>
+      <c r="H302" s="135"/>
+      <c r="I302" s="135"/>
+      <c r="J302" s="135"/>
+      <c r="K302" s="135"/>
+      <c r="L302" s="135"/>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F341" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G341" s="87"/>
-      <c r="H341" s="87"/>
-      <c r="I341" s="87"/>
-      <c r="J341" s="87"/>
-      <c r="K341" s="87"/>
-      <c r="L341" s="87"/>
+      <c r="F341" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G341" s="90"/>
+      <c r="H341" s="90"/>
+      <c r="I341" s="90"/>
+      <c r="J341" s="90"/>
+      <c r="K341" s="90"/>
+      <c r="L341" s="90"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F342" s="87" t="s">
+      <c r="F342" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G342" s="87"/>
-      <c r="H342" s="87"/>
-      <c r="I342" s="87"/>
-      <c r="J342" s="87"/>
-      <c r="K342" s="87"/>
-      <c r="L342" s="87"/>
+      <c r="G342" s="90"/>
+      <c r="H342" s="90"/>
+      <c r="I342" s="90"/>
+      <c r="J342" s="90"/>
+      <c r="K342" s="90"/>
+      <c r="L342" s="90"/>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
@@ -4243,15 +4237,15 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
-      <c r="F343" s="91" t="s">
+      <c r="F343" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G343" s="91"/>
-      <c r="H343" s="91"/>
-      <c r="I343" s="91"/>
-      <c r="J343" s="91"/>
-      <c r="K343" s="91"/>
-      <c r="L343" s="91"/>
+      <c r="G343" s="92"/>
+      <c r="H343" s="92"/>
+      <c r="I343" s="92"/>
+      <c r="J343" s="92"/>
+      <c r="K343" s="92"/>
+      <c r="L343" s="92"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
@@ -4259,215 +4253,215 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="91"/>
-      <c r="G344" s="91"/>
-      <c r="H344" s="91"/>
-      <c r="I344" s="91"/>
-      <c r="J344" s="91"/>
-      <c r="K344" s="91"/>
-      <c r="L344" s="91"/>
+      <c r="F344" s="92"/>
+      <c r="G344" s="92"/>
+      <c r="H344" s="92"/>
+      <c r="I344" s="92"/>
+      <c r="J344" s="92"/>
+      <c r="K344" s="92"/>
+      <c r="L344" s="92"/>
     </row>
     <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A346" s="36">
+      <c r="A346" s="35">
         <v>3</v>
       </c>
-      <c r="B346" s="106" t="s">
+      <c r="B346" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="C346" s="107"/>
+      <c r="D346" s="107"/>
+      <c r="E346" s="107"/>
+    </row>
+    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348" s="35">
+        <v>3.1</v>
+      </c>
+      <c r="B348" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C348" s="107"/>
+      <c r="D348" s="107"/>
+      <c r="E348" s="107"/>
+    </row>
+    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A350" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B350" s="132"/>
+      <c r="C350" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D350" s="132"/>
+      <c r="E350" s="132"/>
+      <c r="F350" s="132"/>
+      <c r="G350" s="132"/>
+      <c r="H350" s="132"/>
+      <c r="I350" s="132"/>
+      <c r="J350" s="132"/>
+      <c r="K350" s="132"/>
+      <c r="L350" s="132"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A351" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351" s="131"/>
+      <c r="C351" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D351" s="131"/>
+      <c r="E351" s="131"/>
+      <c r="F351" s="131"/>
+      <c r="G351" s="131"/>
+      <c r="H351" s="131"/>
+      <c r="I351" s="131"/>
+      <c r="J351" s="131"/>
+      <c r="K351" s="131"/>
+      <c r="L351" s="131"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A352" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B352" s="131"/>
+      <c r="C352" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="D352" s="131"/>
+      <c r="E352" s="131"/>
+      <c r="F352" s="131"/>
+      <c r="G352" s="131"/>
+      <c r="H352" s="131"/>
+      <c r="I352" s="131"/>
+      <c r="J352" s="131"/>
+      <c r="K352" s="131"/>
+      <c r="L352" s="131"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A353" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B353" s="131"/>
+      <c r="C353" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="D353" s="131"/>
+      <c r="E353" s="131"/>
+      <c r="F353" s="131"/>
+      <c r="G353" s="131"/>
+      <c r="H353" s="131"/>
+      <c r="I353" s="131"/>
+      <c r="J353" s="131"/>
+      <c r="K353" s="131"/>
+      <c r="L353" s="131"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A354" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B354" s="131"/>
+      <c r="C354" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D354" s="131"/>
+      <c r="E354" s="131"/>
+      <c r="F354" s="131"/>
+      <c r="G354" s="131"/>
+      <c r="H354" s="131"/>
+      <c r="I354" s="131"/>
+      <c r="J354" s="131"/>
+      <c r="K354" s="131"/>
+      <c r="L354" s="131"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A355" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B355" s="131"/>
+      <c r="C355" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="D355" s="131"/>
+      <c r="E355" s="131"/>
+      <c r="F355" s="131"/>
+      <c r="G355" s="131"/>
+      <c r="H355" s="131"/>
+      <c r="I355" s="131"/>
+      <c r="J355" s="131"/>
+      <c r="K355" s="131"/>
+      <c r="L355" s="131"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A356" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B356" s="131"/>
+      <c r="C356" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D356" s="131"/>
+      <c r="E356" s="131"/>
+      <c r="F356" s="131"/>
+      <c r="G356" s="131"/>
+      <c r="H356" s="131"/>
+      <c r="I356" s="131"/>
+      <c r="J356" s="131"/>
+      <c r="K356" s="131"/>
+      <c r="L356" s="131"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A357" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="B357" s="131"/>
+      <c r="C357" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D357" s="131"/>
+      <c r="E357" s="131"/>
+      <c r="F357" s="131"/>
+      <c r="G357" s="131"/>
+      <c r="H357" s="131"/>
+      <c r="I357" s="131"/>
+      <c r="J357" s="131"/>
+      <c r="K357" s="131"/>
+      <c r="L357" s="131"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A358" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B358" s="131"/>
+      <c r="C358" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="C346" s="106"/>
-      <c r="D346" s="106"/>
-      <c r="E346" s="106"/>
-    </row>
-    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A348" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="B348" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C348" s="106"/>
-      <c r="D348" s="106"/>
-      <c r="E348" s="106"/>
-    </row>
-    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A350" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="B350" s="131"/>
-      <c r="C350" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="D350" s="131"/>
-      <c r="E350" s="131"/>
-      <c r="F350" s="131"/>
-      <c r="G350" s="131"/>
-      <c r="H350" s="131"/>
-      <c r="I350" s="131"/>
-      <c r="J350" s="131"/>
-      <c r="K350" s="131"/>
-      <c r="L350" s="131"/>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B351" s="130"/>
-      <c r="C351" s="135" t="s">
-        <v>76</v>
-      </c>
-      <c r="D351" s="130"/>
-      <c r="E351" s="130"/>
-      <c r="F351" s="130"/>
-      <c r="G351" s="130"/>
-      <c r="H351" s="130"/>
-      <c r="I351" s="130"/>
-      <c r="J351" s="130"/>
-      <c r="K351" s="130"/>
-      <c r="L351" s="130"/>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B352" s="130"/>
-      <c r="C352" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="D352" s="130"/>
-      <c r="E352" s="130"/>
-      <c r="F352" s="130"/>
-      <c r="G352" s="130"/>
-      <c r="H352" s="130"/>
-      <c r="I352" s="130"/>
-      <c r="J352" s="130"/>
-      <c r="K352" s="130"/>
-      <c r="L352" s="130"/>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A353" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B353" s="130"/>
-      <c r="C353" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="D353" s="130"/>
-      <c r="E353" s="130"/>
-      <c r="F353" s="130"/>
-      <c r="G353" s="130"/>
-      <c r="H353" s="130"/>
-      <c r="I353" s="130"/>
-      <c r="J353" s="130"/>
-      <c r="K353" s="130"/>
-      <c r="L353" s="130"/>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A354" s="130" t="s">
-        <v>65</v>
-      </c>
-      <c r="B354" s="130"/>
-      <c r="C354" s="130" t="s">
-        <v>155</v>
-      </c>
-      <c r="D354" s="130"/>
-      <c r="E354" s="130"/>
-      <c r="F354" s="130"/>
-      <c r="G354" s="130"/>
-      <c r="H354" s="130"/>
-      <c r="I354" s="130"/>
-      <c r="J354" s="130"/>
-      <c r="K354" s="130"/>
-      <c r="L354" s="130"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A355" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B355" s="130"/>
-      <c r="C355" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="D355" s="130"/>
-      <c r="E355" s="130"/>
-      <c r="F355" s="130"/>
-      <c r="G355" s="130"/>
-      <c r="H355" s="130"/>
-      <c r="I355" s="130"/>
-      <c r="J355" s="130"/>
-      <c r="K355" s="130"/>
-      <c r="L355" s="130"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A356" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="B356" s="130"/>
-      <c r="C356" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="D356" s="130"/>
-      <c r="E356" s="130"/>
-      <c r="F356" s="130"/>
-      <c r="G356" s="130"/>
-      <c r="H356" s="130"/>
-      <c r="I356" s="130"/>
-      <c r="J356" s="130"/>
-      <c r="K356" s="130"/>
-      <c r="L356" s="130"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A357" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B357" s="130"/>
-      <c r="C357" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="D357" s="130"/>
-      <c r="E357" s="130"/>
-      <c r="F357" s="130"/>
-      <c r="G357" s="130"/>
-      <c r="H357" s="130"/>
-      <c r="I357" s="130"/>
-      <c r="J357" s="130"/>
-      <c r="K357" s="130"/>
-      <c r="L357" s="130"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A358" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="B358" s="130"/>
-      <c r="C358" s="130" t="s">
-        <v>154</v>
-      </c>
-      <c r="D358" s="130"/>
-      <c r="E358" s="130"/>
-      <c r="F358" s="130"/>
-      <c r="G358" s="130"/>
-      <c r="H358" s="130"/>
-      <c r="I358" s="130"/>
-      <c r="J358" s="130"/>
-      <c r="K358" s="130"/>
-      <c r="L358" s="130"/>
+      <c r="D358" s="131"/>
+      <c r="E358" s="131"/>
+      <c r="F358" s="131"/>
+      <c r="G358" s="131"/>
+      <c r="H358" s="131"/>
+      <c r="I358" s="131"/>
+      <c r="J358" s="131"/>
+      <c r="K358" s="131"/>
+      <c r="L358" s="131"/>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A359" s="130" t="s">
-        <v>152</v>
-      </c>
-      <c r="B359" s="130"/>
-      <c r="C359" s="130" t="s">
-        <v>153</v>
-      </c>
-      <c r="D359" s="130"/>
-      <c r="E359" s="130"/>
-      <c r="F359" s="130"/>
-      <c r="G359" s="130"/>
-      <c r="H359" s="130"/>
-      <c r="I359" s="130"/>
-      <c r="J359" s="130"/>
-      <c r="K359" s="130"/>
-      <c r="L359" s="130"/>
+      <c r="A359" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B359" s="131"/>
+      <c r="C359" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D359" s="131"/>
+      <c r="E359" s="131"/>
+      <c r="F359" s="131"/>
+      <c r="G359" s="131"/>
+      <c r="H359" s="131"/>
+      <c r="I359" s="131"/>
+      <c r="J359" s="131"/>
+      <c r="K359" s="131"/>
+      <c r="L359" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="189">
@@ -4627,7 +4621,6 @@
     <mergeCell ref="G69:L69"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="G57:L57"/>
-    <mergeCell ref="A58:F58"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="G61:L61"/>
     <mergeCell ref="F48:L48"/>
@@ -4636,6 +4629,7 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F50:L51"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:K39"/>
     <mergeCell ref="B40:C40"/>

--- a/ConsoleApps/ProductTreeIT.xlsx
+++ b/ConsoleApps/ProductTreeIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
   <si>
     <t>&lt;docDate&gt;</t>
   </si>
@@ -950,9 +950,187 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,27 +1161,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,169 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A388" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K346" sqref="K346"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1889,20 +1889,20 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1910,57 +1910,57 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
@@ -1977,16 +1977,16 @@
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,16 +2003,16 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2028,68 +2028,68 @@
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="13"/>
@@ -2104,16 +2104,16 @@
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2129,16 +2129,16 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2168,118 +2168,120 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60" t="s">
+      <c r="C33" s="121"/>
+      <c r="D33" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="127"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67" t="s">
+      <c r="B35" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="116"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="116"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="116"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="116"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="80" t="s">
+      <c r="C40" s="70"/>
+      <c r="D40" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,26 +2347,26 @@
       <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="90" t="s">
+      <c r="F48" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="90" t="s">
+      <c r="F49" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -2372,15 +2374,15 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="92" t="s">
+      <c r="F50" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -2388,25 +2390,25 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="F53" s="91" t="s">
+      <c r="F53" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="91"/>
+      <c r="G53" s="113"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
@@ -2439,14 +2441,14 @@
       <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="13"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
@@ -2455,22 +2457,22 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84" t="s">
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="86"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="111"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
@@ -2503,14 +2505,14 @@
       <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="100"/>
       <c r="G60" s="13"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
@@ -2519,22 +2521,22 @@
       <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84" t="s">
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="86"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="111"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
@@ -2551,43 +2553,43 @@
       <c r="L62" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E65" s="96" t="s">
+      <c r="E65" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E66" s="27"/>
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="100" t="s">
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="100"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="101"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="108"/>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="89"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="100"/>
       <c r="G68" s="5" t="s">
         <v>12</v>
       </c>
@@ -2598,50 +2600,50 @@
       <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="88" t="s">
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="89"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="100"/>
     </row>
     <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="93" t="s">
+      <c r="A70" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="87" t="s">
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="89"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="100"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="83"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="103"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2650,26 +2652,26 @@
       <c r="L71" s="20"/>
     </row>
     <row r="96" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F96" s="90" t="s">
+      <c r="F96" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
-      <c r="J96" s="90"/>
-      <c r="K96" s="90"/>
-      <c r="L96" s="90"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F97" s="90" t="s">
+      <c r="F97" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G97" s="90"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="90"/>
-      <c r="J97" s="90"/>
-      <c r="K97" s="90"/>
-      <c r="L97" s="90"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
@@ -2677,15 +2679,15 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="92" t="s">
+      <c r="F98" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="57"/>
+      <c r="L98" s="57"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
@@ -2693,13 +2695,13 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="92"/>
-      <c r="L99" s="92"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
@@ -2716,125 +2718,125 @@
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D101" s="96" t="s">
+      <c r="D101" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
     </row>
     <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="103"/>
-      <c r="C103" s="102" t="s">
+      <c r="B103" s="93"/>
+      <c r="C103" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="103"/>
-      <c r="E103" s="102" t="s">
+      <c r="D103" s="93"/>
+      <c r="E103" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="103"/>
-      <c r="G103" s="102" t="s">
+      <c r="F103" s="93"/>
+      <c r="G103" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H103" s="104"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="102" t="s">
+      <c r="H103" s="94"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="K103" s="104"/>
-      <c r="L103" s="103"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="93"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="105" t="s">
+      <c r="B104" s="90"/>
+      <c r="C104" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105" t="s">
+      <c r="D104" s="90"/>
+      <c r="E104" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105" t="s">
+      <c r="F104" s="90"/>
+      <c r="G104" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="H104" s="105"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="105" t="s">
+      <c r="H104" s="90"/>
+      <c r="I104" s="90"/>
+      <c r="J104" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
+      <c r="K104" s="90"/>
+      <c r="L104" s="90"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="105"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="105"/>
+      <c r="A105" s="90"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
+      <c r="K105" s="90"/>
+      <c r="L105" s="90"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="105"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
+      <c r="K106" s="90"/>
+      <c r="L106" s="90"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="105"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
+      <c r="A107" s="90"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="90"/>
+      <c r="J107" s="90"/>
+      <c r="K107" s="90"/>
+      <c r="L107" s="90"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F145" s="90" t="s">
+      <c r="F145" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G145" s="90"/>
-      <c r="H145" s="90"/>
-      <c r="I145" s="90"/>
-      <c r="J145" s="90"/>
-      <c r="K145" s="90"/>
-      <c r="L145" s="90"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
+      <c r="K145" s="63"/>
+      <c r="L145" s="63"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F146" s="90" t="s">
+      <c r="F146" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="90"/>
-      <c r="H146" s="90"/>
-      <c r="I146" s="90"/>
-      <c r="J146" s="90"/>
-      <c r="K146" s="90"/>
-      <c r="L146" s="90"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="63"/>
+      <c r="J146" s="63"/>
+      <c r="K146" s="63"/>
+      <c r="L146" s="63"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
@@ -2842,15 +2844,15 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="92" t="s">
+      <c r="F147" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G147" s="92"/>
-      <c r="H147" s="92"/>
-      <c r="I147" s="92"/>
-      <c r="J147" s="92"/>
-      <c r="K147" s="92"/>
-      <c r="L147" s="92"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
@@ -2858,13 +2860,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="92"/>
-      <c r="H148" s="92"/>
-      <c r="I148" s="92"/>
-      <c r="J148" s="92"/>
-      <c r="K148" s="92"/>
-      <c r="L148" s="92"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="57"/>
+      <c r="L148" s="57"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
@@ -2881,20 +2883,20 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E150" s="96" t="s">
+      <c r="E150" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="F150" s="96"/>
-      <c r="G150" s="96"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="89"/>
     </row>
     <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <v>1</v>
       </c>
-      <c r="B152" s="106" t="s">
+      <c r="B152" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="106"/>
+      <c r="C152" s="91"/>
       <c r="D152" s="54"/>
       <c r="E152" s="54"/>
       <c r="F152" s="54"/>
@@ -3028,22 +3030,22 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E162" s="96" t="s">
+      <c r="E162" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F162" s="96"/>
-      <c r="G162" s="96"/>
+      <c r="F162" s="89"/>
+      <c r="G162" s="89"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="109" t="s">
+      <c r="A164" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="B164" s="109"/>
-      <c r="C164" s="109"/>
-      <c r="D164" s="109"/>
-      <c r="E164" s="109"/>
-      <c r="F164" s="109"/>
-      <c r="G164" s="109"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="74"/>
       <c r="H164" s="51"/>
       <c r="I164" s="51"/>
       <c r="J164" s="51"/>
@@ -3059,13 +3061,13 @@
       <c r="L166" s="48"/>
     </row>
     <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D167" s="96" t="s">
+      <c r="D167" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="E167" s="96"/>
-      <c r="F167" s="96"/>
-      <c r="G167" s="96"/>
-      <c r="H167" s="96"/>
+      <c r="E167" s="89"/>
+      <c r="F167" s="89"/>
+      <c r="G167" s="89"/>
+      <c r="H167" s="89"/>
       <c r="L167" s="48"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -3090,26 +3092,26 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F194" s="90" t="s">
+      <c r="F194" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G194" s="90"/>
-      <c r="H194" s="90"/>
-      <c r="I194" s="90"/>
-      <c r="J194" s="90"/>
-      <c r="K194" s="90"/>
-      <c r="L194" s="90"/>
+      <c r="G194" s="63"/>
+      <c r="H194" s="63"/>
+      <c r="I194" s="63"/>
+      <c r="J194" s="63"/>
+      <c r="K194" s="63"/>
+      <c r="L194" s="63"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F195" s="90" t="s">
+      <c r="F195" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G195" s="90"/>
-      <c r="H195" s="90"/>
-      <c r="I195" s="90"/>
-      <c r="J195" s="90"/>
-      <c r="K195" s="90"/>
-      <c r="L195" s="90"/>
+      <c r="G195" s="63"/>
+      <c r="H195" s="63"/>
+      <c r="I195" s="63"/>
+      <c r="J195" s="63"/>
+      <c r="K195" s="63"/>
+      <c r="L195" s="63"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
@@ -3117,15 +3119,15 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="92" t="s">
+      <c r="F196" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G196" s="92"/>
-      <c r="H196" s="92"/>
-      <c r="I196" s="92"/>
-      <c r="J196" s="92"/>
-      <c r="K196" s="92"/>
-      <c r="L196" s="92"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="57"/>
+      <c r="K196" s="57"/>
+      <c r="L196" s="57"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
@@ -3133,306 +3135,306 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="92"/>
-      <c r="G197" s="92"/>
-      <c r="H197" s="92"/>
-      <c r="I197" s="92"/>
-      <c r="J197" s="92"/>
-      <c r="K197" s="92"/>
-      <c r="L197" s="92"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="57"/>
+      <c r="L197" s="57"/>
     </row>
     <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="35">
         <v>1</v>
       </c>
-      <c r="B199" s="107" t="s">
+      <c r="B199" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C199" s="107"/>
-      <c r="D199" s="107"/>
+      <c r="C199" s="58"/>
+      <c r="D199" s="58"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="108" t="s">
+      <c r="A200" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="B200" s="55"/>
-      <c r="C200" s="55"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="55"/>
-      <c r="I200" s="55"/>
-      <c r="J200" s="55"/>
-      <c r="K200" s="55"/>
-      <c r="L200" s="55"/>
+      <c r="B200" s="84"/>
+      <c r="C200" s="84"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="84"/>
+      <c r="I200" s="84"/>
+      <c r="J200" s="84"/>
+      <c r="K200" s="84"/>
+      <c r="L200" s="84"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="55"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="55"/>
-      <c r="I201" s="55"/>
-      <c r="J201" s="55"/>
-      <c r="K201" s="55"/>
-      <c r="L201" s="55"/>
+      <c r="A201" s="84"/>
+      <c r="B201" s="84"/>
+      <c r="C201" s="84"/>
+      <c r="D201" s="84"/>
+      <c r="E201" s="84"/>
+      <c r="F201" s="84"/>
+      <c r="G201" s="84"/>
+      <c r="H201" s="84"/>
+      <c r="I201" s="84"/>
+      <c r="J201" s="84"/>
+      <c r="K201" s="84"/>
+      <c r="L201" s="84"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="55" t="s">
+      <c r="A202" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B202" s="55"/>
-      <c r="C202" s="55"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="55"/>
-      <c r="I202" s="55"/>
-      <c r="J202" s="55"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="55"/>
+      <c r="B202" s="84"/>
+      <c r="C202" s="84"/>
+      <c r="D202" s="84"/>
+      <c r="E202" s="84"/>
+      <c r="F202" s="84"/>
+      <c r="G202" s="84"/>
+      <c r="H202" s="84"/>
+      <c r="I202" s="84"/>
+      <c r="J202" s="84"/>
+      <c r="K202" s="84"/>
+      <c r="L202" s="84"/>
     </row>
     <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B204" s="107" t="s">
+      <c r="B204" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C204" s="107"/>
+      <c r="C204" s="58"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="108" t="s">
+      <c r="A205" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B205" s="55"/>
-      <c r="C205" s="55"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="55"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="55"/>
-      <c r="L205" s="55"/>
+      <c r="B205" s="84"/>
+      <c r="C205" s="84"/>
+      <c r="D205" s="84"/>
+      <c r="E205" s="84"/>
+      <c r="F205" s="84"/>
+      <c r="G205" s="84"/>
+      <c r="H205" s="84"/>
+      <c r="I205" s="84"/>
+      <c r="J205" s="84"/>
+      <c r="K205" s="84"/>
+      <c r="L205" s="84"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="55"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="55"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="55"/>
-      <c r="I206" s="55"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="55"/>
-      <c r="L206" s="55"/>
+      <c r="A206" s="84"/>
+      <c r="B206" s="84"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="84"/>
+      <c r="E206" s="84"/>
+      <c r="F206" s="84"/>
+      <c r="G206" s="84"/>
+      <c r="H206" s="84"/>
+      <c r="I206" s="84"/>
+      <c r="J206" s="84"/>
+      <c r="K206" s="84"/>
+      <c r="L206" s="84"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="55"/>
-      <c r="B207" s="55"/>
-      <c r="C207" s="55"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="55"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="55"/>
-      <c r="I207" s="55"/>
-      <c r="J207" s="55"/>
-      <c r="K207" s="55"/>
-      <c r="L207" s="55"/>
+      <c r="A207" s="84"/>
+      <c r="B207" s="84"/>
+      <c r="C207" s="84"/>
+      <c r="D207" s="84"/>
+      <c r="E207" s="84"/>
+      <c r="F207" s="84"/>
+      <c r="G207" s="84"/>
+      <c r="H207" s="84"/>
+      <c r="I207" s="84"/>
+      <c r="J207" s="84"/>
+      <c r="K207" s="84"/>
+      <c r="L207" s="84"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A208" s="55"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="55"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
-      <c r="I208" s="55"/>
-      <c r="J208" s="55"/>
-      <c r="K208" s="55"/>
-      <c r="L208" s="55"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="84"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84"/>
+      <c r="G208" s="84"/>
+      <c r="H208" s="84"/>
+      <c r="I208" s="84"/>
+      <c r="J208" s="84"/>
+      <c r="K208" s="84"/>
+      <c r="L208" s="84"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="55"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="55"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
-      <c r="I209" s="55"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="55"/>
-      <c r="L209" s="55"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="84"/>
+      <c r="C209" s="84"/>
+      <c r="D209" s="84"/>
+      <c r="E209" s="84"/>
+      <c r="F209" s="84"/>
+      <c r="G209" s="84"/>
+      <c r="H209" s="84"/>
+      <c r="I209" s="84"/>
+      <c r="J209" s="84"/>
+      <c r="K209" s="84"/>
+      <c r="L209" s="84"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="55"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="55"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="84"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="84"/>
+      <c r="E210" s="84"/>
+      <c r="F210" s="84"/>
+      <c r="G210" s="84"/>
+      <c r="H210" s="84"/>
+      <c r="I210" s="84"/>
+      <c r="J210" s="84"/>
+      <c r="K210" s="84"/>
+      <c r="L210" s="84"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="55"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="55"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="55"/>
-      <c r="J211" s="55"/>
-      <c r="K211" s="55"/>
-      <c r="L211" s="55"/>
+      <c r="A211" s="84"/>
+      <c r="B211" s="84"/>
+      <c r="C211" s="84"/>
+      <c r="D211" s="84"/>
+      <c r="E211" s="84"/>
+      <c r="F211" s="84"/>
+      <c r="G211" s="84"/>
+      <c r="H211" s="84"/>
+      <c r="I211" s="84"/>
+      <c r="J211" s="84"/>
+      <c r="K211" s="84"/>
+      <c r="L211" s="84"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="55"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="55"/>
+      <c r="A212" s="84"/>
+      <c r="B212" s="84"/>
+      <c r="C212" s="84"/>
+      <c r="D212" s="84"/>
+      <c r="E212" s="84"/>
+      <c r="F212" s="84"/>
+      <c r="G212" s="84"/>
+      <c r="H212" s="84"/>
+      <c r="I212" s="84"/>
+      <c r="J212" s="84"/>
+      <c r="K212" s="84"/>
+      <c r="L212" s="84"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="55"/>
-      <c r="B213" s="55"/>
-      <c r="C213" s="55"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="55"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="55"/>
-      <c r="I213" s="55"/>
-      <c r="J213" s="55"/>
-      <c r="K213" s="55"/>
-      <c r="L213" s="55"/>
+      <c r="A213" s="84"/>
+      <c r="B213" s="84"/>
+      <c r="C213" s="84"/>
+      <c r="D213" s="84"/>
+      <c r="E213" s="84"/>
+      <c r="F213" s="84"/>
+      <c r="G213" s="84"/>
+      <c r="H213" s="84"/>
+      <c r="I213" s="84"/>
+      <c r="J213" s="84"/>
+      <c r="K213" s="84"/>
+      <c r="L213" s="84"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="55"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="55"/>
-      <c r="D214" s="55"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="55"/>
-      <c r="I214" s="55"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
+      <c r="A214" s="84"/>
+      <c r="B214" s="84"/>
+      <c r="C214" s="84"/>
+      <c r="D214" s="84"/>
+      <c r="E214" s="84"/>
+      <c r="F214" s="84"/>
+      <c r="G214" s="84"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="84"/>
+      <c r="J214" s="84"/>
+      <c r="K214" s="84"/>
+      <c r="L214" s="84"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B216" s="114" t="s">
+      <c r="B216" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C216" s="114"/>
-      <c r="D216" s="114"/>
-      <c r="E216" s="114" t="s">
+      <c r="C216" s="85"/>
+      <c r="D216" s="85"/>
+      <c r="E216" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F216" s="114"/>
-      <c r="G216" s="114"/>
-      <c r="H216" s="114"/>
-      <c r="I216" s="114"/>
-      <c r="J216" s="114"/>
-      <c r="K216" s="114"/>
-      <c r="L216" s="114"/>
+      <c r="F216" s="85"/>
+      <c r="G216" s="85"/>
+      <c r="H216" s="85"/>
+      <c r="I216" s="85"/>
+      <c r="J216" s="85"/>
+      <c r="K216" s="85"/>
+      <c r="L216" s="85"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="37">
         <v>1</v>
       </c>
-      <c r="B217" s="115" t="s">
+      <c r="B217" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C217" s="115"/>
-      <c r="D217" s="115"/>
-      <c r="E217" s="116" t="s">
+      <c r="C217" s="86"/>
+      <c r="D217" s="86"/>
+      <c r="E217" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F217" s="116"/>
-      <c r="G217" s="116"/>
-      <c r="H217" s="116"/>
-      <c r="I217" s="116"/>
-      <c r="J217" s="116"/>
-      <c r="K217" s="116"/>
-      <c r="L217" s="116"/>
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="68"/>
+      <c r="I217" s="68"/>
+      <c r="J217" s="68"/>
+      <c r="K217" s="68"/>
+      <c r="L217" s="68"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="37">
         <v>2</v>
       </c>
-      <c r="B218" s="115" t="s">
+      <c r="B218" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C218" s="115"/>
-      <c r="D218" s="115"/>
-      <c r="E218" s="116" t="s">
+      <c r="C218" s="86"/>
+      <c r="D218" s="86"/>
+      <c r="E218" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F218" s="116"/>
-      <c r="G218" s="116"/>
-      <c r="H218" s="116"/>
-      <c r="I218" s="116"/>
-      <c r="J218" s="116"/>
-      <c r="K218" s="116"/>
-      <c r="L218" s="116"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="68"/>
+      <c r="I218" s="68"/>
+      <c r="J218" s="68"/>
+      <c r="K218" s="68"/>
+      <c r="L218" s="68"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="110">
+      <c r="A219" s="81">
         <v>3</v>
       </c>
-      <c r="B219" s="110" t="s">
+      <c r="B219" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C219" s="110"/>
-      <c r="D219" s="110"/>
-      <c r="E219" s="111" t="s">
+      <c r="C219" s="81"/>
+      <c r="D219" s="81"/>
+      <c r="E219" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F219" s="111"/>
-      <c r="G219" s="111"/>
-      <c r="H219" s="111"/>
-      <c r="I219" s="111"/>
-      <c r="J219" s="111"/>
-      <c r="K219" s="111"/>
-      <c r="L219" s="111"/>
+      <c r="F219" s="82"/>
+      <c r="G219" s="82"/>
+      <c r="H219" s="82"/>
+      <c r="I219" s="82"/>
+      <c r="J219" s="82"/>
+      <c r="K219" s="82"/>
+      <c r="L219" s="82"/>
     </row>
     <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="110"/>
-      <c r="B220" s="110"/>
-      <c r="C220" s="110"/>
-      <c r="D220" s="110"/>
+      <c r="A220" s="81"/>
+      <c r="B220" s="81"/>
+      <c r="C220" s="81"/>
+      <c r="D220" s="81"/>
       <c r="E220" s="44" t="s">
         <v>87</v>
       </c>
@@ -3440,19 +3442,19 @@
         <v>68</v>
       </c>
       <c r="G220" s="40"/>
-      <c r="H220" s="112" t="s">
+      <c r="H220" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="I220" s="112"/>
-      <c r="J220" s="112"/>
-      <c r="K220" s="112"/>
-      <c r="L220" s="113"/>
+      <c r="I220" s="72"/>
+      <c r="J220" s="72"/>
+      <c r="K220" s="72"/>
+      <c r="L220" s="73"/>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="110"/>
-      <c r="B221" s="110"/>
-      <c r="C221" s="110"/>
-      <c r="D221" s="110"/>
+      <c r="A221" s="81"/>
+      <c r="B221" s="81"/>
+      <c r="C221" s="81"/>
+      <c r="D221" s="81"/>
       <c r="E221" s="44" t="s">
         <v>87</v>
       </c>
@@ -3460,19 +3462,19 @@
         <v>67</v>
       </c>
       <c r="G221" s="40"/>
-      <c r="H221" s="112" t="s">
+      <c r="H221" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="I221" s="112"/>
-      <c r="J221" s="112"/>
-      <c r="K221" s="112"/>
-      <c r="L221" s="113"/>
+      <c r="I221" s="72"/>
+      <c r="J221" s="72"/>
+      <c r="K221" s="72"/>
+      <c r="L221" s="73"/>
     </row>
     <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="110"/>
-      <c r="B222" s="110"/>
-      <c r="C222" s="110"/>
-      <c r="D222" s="110"/>
+      <c r="A222" s="81"/>
+      <c r="B222" s="81"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
       <c r="E222" s="44" t="s">
         <v>87</v>
       </c>
@@ -3480,19 +3482,19 @@
         <v>66</v>
       </c>
       <c r="G222" s="40"/>
-      <c r="H222" s="117" t="s">
+      <c r="H222" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="I222" s="117"/>
-      <c r="J222" s="117"/>
-      <c r="K222" s="117"/>
-      <c r="L222" s="118"/>
+      <c r="I222" s="87"/>
+      <c r="J222" s="87"/>
+      <c r="K222" s="87"/>
+      <c r="L222" s="88"/>
     </row>
     <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="110"/>
-      <c r="B223" s="110"/>
-      <c r="C223" s="110"/>
-      <c r="D223" s="110"/>
+      <c r="A223" s="81"/>
+      <c r="B223" s="81"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
       <c r="E223" s="44" t="s">
         <v>87</v>
       </c>
@@ -3500,19 +3502,19 @@
         <v>65</v>
       </c>
       <c r="G223" s="40"/>
-      <c r="H223" s="112" t="s">
+      <c r="H223" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I223" s="112"/>
-      <c r="J223" s="112"/>
-      <c r="K223" s="112"/>
-      <c r="L223" s="113"/>
+      <c r="I223" s="72"/>
+      <c r="J223" s="72"/>
+      <c r="K223" s="72"/>
+      <c r="L223" s="73"/>
     </row>
     <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="110"/>
-      <c r="B224" s="110"/>
-      <c r="C224" s="110"/>
-      <c r="D224" s="110"/>
+      <c r="A224" s="81"/>
+      <c r="B224" s="81"/>
+      <c r="C224" s="81"/>
+      <c r="D224" s="81"/>
       <c r="E224" s="44" t="s">
         <v>87</v>
       </c>
@@ -3520,19 +3522,19 @@
         <v>64</v>
       </c>
       <c r="G224" s="40"/>
-      <c r="H224" s="112" t="s">
+      <c r="H224" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="I224" s="112"/>
-      <c r="J224" s="112"/>
-      <c r="K224" s="112"/>
-      <c r="L224" s="113"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
+      <c r="K224" s="72"/>
+      <c r="L224" s="73"/>
     </row>
     <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="110"/>
-      <c r="B225" s="110"/>
-      <c r="C225" s="110"/>
-      <c r="D225" s="110"/>
+      <c r="A225" s="81"/>
+      <c r="B225" s="81"/>
+      <c r="C225" s="81"/>
+      <c r="D225" s="81"/>
       <c r="E225" s="44" t="s">
         <v>87</v>
       </c>
@@ -3540,19 +3542,19 @@
         <v>63</v>
       </c>
       <c r="G225" s="40"/>
-      <c r="H225" s="112" t="s">
+      <c r="H225" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I225" s="112"/>
-      <c r="J225" s="112"/>
-      <c r="K225" s="112"/>
-      <c r="L225" s="113"/>
+      <c r="I225" s="72"/>
+      <c r="J225" s="72"/>
+      <c r="K225" s="72"/>
+      <c r="L225" s="73"/>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="110"/>
-      <c r="B226" s="110"/>
-      <c r="C226" s="110"/>
-      <c r="D226" s="110"/>
+      <c r="A226" s="81"/>
+      <c r="B226" s="81"/>
+      <c r="C226" s="81"/>
+      <c r="D226" s="81"/>
       <c r="E226" s="46" t="s">
         <v>87</v>
       </c>
@@ -3560,225 +3562,225 @@
         <v>62</v>
       </c>
       <c r="G226" s="41"/>
-      <c r="H226" s="129" t="s">
+      <c r="H226" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="I226" s="129"/>
-      <c r="J226" s="129"/>
-      <c r="K226" s="129"/>
-      <c r="L226" s="130"/>
+      <c r="I226" s="79"/>
+      <c r="J226" s="79"/>
+      <c r="K226" s="79"/>
+      <c r="L226" s="80"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="38">
         <v>4</v>
       </c>
-      <c r="B227" s="66" t="s">
+      <c r="B227" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C227" s="66"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="120" t="s">
+      <c r="C227" s="70"/>
+      <c r="D227" s="70"/>
+      <c r="E227" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F227" s="120"/>
-      <c r="G227" s="120"/>
-      <c r="H227" s="120"/>
-      <c r="I227" s="120"/>
-      <c r="J227" s="120"/>
-      <c r="K227" s="120"/>
-      <c r="L227" s="120"/>
+      <c r="F227" s="71"/>
+      <c r="G227" s="71"/>
+      <c r="H227" s="71"/>
+      <c r="I227" s="71"/>
+      <c r="J227" s="71"/>
+      <c r="K227" s="71"/>
+      <c r="L227" s="71"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="119">
+      <c r="A228" s="69">
         <v>5</v>
       </c>
-      <c r="B228" s="119" t="s">
+      <c r="B228" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C228" s="119"/>
-      <c r="D228" s="119"/>
-      <c r="E228" s="121" t="s">
+      <c r="C228" s="69"/>
+      <c r="D228" s="69"/>
+      <c r="E228" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F228" s="116"/>
-      <c r="G228" s="116"/>
-      <c r="H228" s="116"/>
-      <c r="I228" s="116"/>
-      <c r="J228" s="116"/>
-      <c r="K228" s="116"/>
-      <c r="L228" s="116"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="68"/>
+      <c r="H228" s="68"/>
+      <c r="I228" s="68"/>
+      <c r="J228" s="68"/>
+      <c r="K228" s="68"/>
+      <c r="L228" s="68"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="119"/>
-      <c r="B229" s="119"/>
-      <c r="C229" s="119"/>
-      <c r="D229" s="119"/>
-      <c r="E229" s="116"/>
-      <c r="F229" s="116"/>
-      <c r="G229" s="116"/>
-      <c r="H229" s="116"/>
-      <c r="I229" s="116"/>
-      <c r="J229" s="116"/>
-      <c r="K229" s="116"/>
-      <c r="L229" s="116"/>
+      <c r="A229" s="69"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="68"/>
+      <c r="F229" s="68"/>
+      <c r="G229" s="68"/>
+      <c r="H229" s="68"/>
+      <c r="I229" s="68"/>
+      <c r="J229" s="68"/>
+      <c r="K229" s="68"/>
+      <c r="L229" s="68"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="38">
         <v>6</v>
       </c>
-      <c r="B230" s="66" t="s">
+      <c r="B230" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C230" s="66"/>
-      <c r="D230" s="66"/>
-      <c r="E230" s="116" t="s">
+      <c r="C230" s="70"/>
+      <c r="D230" s="70"/>
+      <c r="E230" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F230" s="116"/>
-      <c r="G230" s="116"/>
-      <c r="H230" s="116"/>
-      <c r="I230" s="116"/>
-      <c r="J230" s="116"/>
-      <c r="K230" s="116"/>
-      <c r="L230" s="116"/>
+      <c r="F230" s="68"/>
+      <c r="G230" s="68"/>
+      <c r="H230" s="68"/>
+      <c r="I230" s="68"/>
+      <c r="J230" s="68"/>
+      <c r="K230" s="68"/>
+      <c r="L230" s="68"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="38">
         <v>7</v>
       </c>
-      <c r="B231" s="66" t="s">
+      <c r="B231" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C231" s="66"/>
-      <c r="D231" s="66"/>
-      <c r="E231" s="116" t="s">
+      <c r="C231" s="70"/>
+      <c r="D231" s="70"/>
+      <c r="E231" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="F231" s="116"/>
-      <c r="G231" s="116"/>
-      <c r="H231" s="116"/>
-      <c r="I231" s="116"/>
-      <c r="J231" s="116"/>
-      <c r="K231" s="116"/>
-      <c r="L231" s="116"/>
+      <c r="F231" s="68"/>
+      <c r="G231" s="68"/>
+      <c r="H231" s="68"/>
+      <c r="I231" s="68"/>
+      <c r="J231" s="68"/>
+      <c r="K231" s="68"/>
+      <c r="L231" s="68"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="119">
+      <c r="A232" s="69">
         <v>8</v>
       </c>
-      <c r="B232" s="119" t="s">
+      <c r="B232" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C232" s="119"/>
-      <c r="D232" s="119"/>
-      <c r="E232" s="116" t="s">
+      <c r="C232" s="69"/>
+      <c r="D232" s="69"/>
+      <c r="E232" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F232" s="116"/>
-      <c r="G232" s="116"/>
-      <c r="H232" s="116"/>
-      <c r="I232" s="116"/>
-      <c r="J232" s="116"/>
-      <c r="K232" s="116"/>
-      <c r="L232" s="116"/>
+      <c r="F232" s="68"/>
+      <c r="G232" s="68"/>
+      <c r="H232" s="68"/>
+      <c r="I232" s="68"/>
+      <c r="J232" s="68"/>
+      <c r="K232" s="68"/>
+      <c r="L232" s="68"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="119"/>
-      <c r="B233" s="119"/>
-      <c r="C233" s="119"/>
-      <c r="D233" s="119"/>
+      <c r="A233" s="69"/>
+      <c r="B233" s="69"/>
+      <c r="C233" s="69"/>
+      <c r="D233" s="69"/>
       <c r="E233" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F233" s="128" t="s">
+      <c r="F233" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="G233" s="128"/>
-      <c r="H233" s="126" t="s">
+      <c r="G233" s="78"/>
+      <c r="H233" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="I233" s="126"/>
-      <c r="J233" s="126"/>
-      <c r="K233" s="126"/>
-      <c r="L233" s="127"/>
+      <c r="I233" s="76"/>
+      <c r="J233" s="76"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="77"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="119"/>
-      <c r="B234" s="119"/>
-      <c r="C234" s="119"/>
-      <c r="D234" s="119"/>
+      <c r="A234" s="69"/>
+      <c r="B234" s="69"/>
+      <c r="C234" s="69"/>
+      <c r="D234" s="69"/>
       <c r="E234" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F234" s="128" t="s">
+      <c r="F234" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G234" s="128"/>
-      <c r="H234" s="126" t="s">
+      <c r="G234" s="78"/>
+      <c r="H234" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="I234" s="126"/>
-      <c r="J234" s="126"/>
-      <c r="K234" s="126"/>
-      <c r="L234" s="127"/>
+      <c r="I234" s="76"/>
+      <c r="J234" s="76"/>
+      <c r="K234" s="76"/>
+      <c r="L234" s="77"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="39">
         <v>9</v>
       </c>
-      <c r="B235" s="125" t="s">
+      <c r="B235" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C235" s="125"/>
-      <c r="D235" s="125"/>
-      <c r="E235" s="121" t="s">
+      <c r="C235" s="75"/>
+      <c r="D235" s="75"/>
+      <c r="E235" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="F235" s="116"/>
-      <c r="G235" s="116"/>
-      <c r="H235" s="116"/>
-      <c r="I235" s="116"/>
-      <c r="J235" s="116"/>
-      <c r="K235" s="116"/>
-      <c r="L235" s="116"/>
+      <c r="F235" s="68"/>
+      <c r="G235" s="68"/>
+      <c r="H235" s="68"/>
+      <c r="I235" s="68"/>
+      <c r="J235" s="68"/>
+      <c r="K235" s="68"/>
+      <c r="L235" s="68"/>
     </row>
     <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="109" t="s">
+      <c r="A236" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B236" s="109"/>
-      <c r="C236" s="109"/>
-      <c r="D236" s="109"/>
-      <c r="E236" s="109"/>
-      <c r="F236" s="109"/>
-      <c r="G236" s="109"/>
-      <c r="H236" s="109"/>
-      <c r="I236" s="109"/>
-      <c r="J236" s="109"/>
-      <c r="K236" s="109"/>
-      <c r="L236" s="109"/>
+      <c r="B236" s="74"/>
+      <c r="C236" s="74"/>
+      <c r="D236" s="74"/>
+      <c r="E236" s="74"/>
+      <c r="F236" s="74"/>
+      <c r="G236" s="74"/>
+      <c r="H236" s="74"/>
+      <c r="I236" s="74"/>
+      <c r="J236" s="74"/>
+      <c r="K236" s="74"/>
+      <c r="L236" s="74"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F243" s="90" t="s">
+      <c r="F243" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G243" s="90"/>
-      <c r="H243" s="90"/>
-      <c r="I243" s="90"/>
-      <c r="J243" s="90"/>
-      <c r="K243" s="90"/>
-      <c r="L243" s="90"/>
+      <c r="G243" s="63"/>
+      <c r="H243" s="63"/>
+      <c r="I243" s="63"/>
+      <c r="J243" s="63"/>
+      <c r="K243" s="63"/>
+      <c r="L243" s="63"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F244" s="90" t="s">
+      <c r="F244" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G244" s="90"/>
-      <c r="H244" s="90"/>
-      <c r="I244" s="90"/>
-      <c r="J244" s="90"/>
-      <c r="K244" s="90"/>
-      <c r="L244" s="90"/>
+      <c r="G244" s="63"/>
+      <c r="H244" s="63"/>
+      <c r="I244" s="63"/>
+      <c r="J244" s="63"/>
+      <c r="K244" s="63"/>
+      <c r="L244" s="63"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
@@ -3786,15 +3788,15 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
-      <c r="F245" s="92" t="s">
+      <c r="F245" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G245" s="92"/>
-      <c r="H245" s="92"/>
-      <c r="I245" s="92"/>
-      <c r="J245" s="92"/>
-      <c r="K245" s="92"/>
-      <c r="L245" s="92"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57"/>
+      <c r="K245" s="57"/>
+      <c r="L245" s="57"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
@@ -3802,297 +3804,297 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="92"/>
-      <c r="G246" s="92"/>
-      <c r="H246" s="92"/>
-      <c r="I246" s="92"/>
-      <c r="J246" s="92"/>
-      <c r="K246" s="92"/>
-      <c r="L246" s="92"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="57"/>
+      <c r="J246" s="57"/>
+      <c r="K246" s="57"/>
+      <c r="L246" s="57"/>
     </row>
     <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="35">
         <v>2</v>
       </c>
-      <c r="B248" s="107" t="s">
+      <c r="B248" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C248" s="107"/>
-      <c r="D248" s="107"/>
-      <c r="E248" s="107"/>
+      <c r="C248" s="58"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
     </row>
     <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="35">
         <v>2.1</v>
       </c>
-      <c r="B250" s="107" t="s">
+      <c r="B250" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C250" s="107"/>
-      <c r="D250" s="107"/>
-      <c r="E250" s="107"/>
+      <c r="C250" s="58"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="58"/>
     </row>
     <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B252" s="122" t="s">
+      <c r="B252" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C252" s="123"/>
-      <c r="D252" s="124"/>
-      <c r="E252" s="122" t="s">
+      <c r="C252" s="65"/>
+      <c r="D252" s="66"/>
+      <c r="E252" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F252" s="123"/>
-      <c r="G252" s="123"/>
-      <c r="H252" s="123"/>
-      <c r="I252" s="123"/>
-      <c r="J252" s="123"/>
-      <c r="K252" s="123"/>
-      <c r="L252" s="124"/>
+      <c r="F252" s="65"/>
+      <c r="G252" s="65"/>
+      <c r="H252" s="65"/>
+      <c r="I252" s="65"/>
+      <c r="J252" s="65"/>
+      <c r="K252" s="65"/>
+      <c r="L252" s="66"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B253" s="131" t="s">
+      <c r="B253" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C253" s="131"/>
-      <c r="D253" s="131"/>
-      <c r="E253" s="121" t="s">
+      <c r="C253" s="56"/>
+      <c r="D253" s="56"/>
+      <c r="E253" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F253" s="116"/>
-      <c r="G253" s="116"/>
-      <c r="H253" s="116"/>
-      <c r="I253" s="116"/>
-      <c r="J253" s="116"/>
-      <c r="K253" s="116"/>
-      <c r="L253" s="116"/>
+      <c r="F253" s="68"/>
+      <c r="G253" s="68"/>
+      <c r="H253" s="68"/>
+      <c r="I253" s="68"/>
+      <c r="J253" s="68"/>
+      <c r="K253" s="68"/>
+      <c r="L253" s="68"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B254" s="131" t="s">
+      <c r="B254" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C254" s="131"/>
-      <c r="D254" s="131"/>
-      <c r="E254" s="116" t="s">
+      <c r="C254" s="56"/>
+      <c r="D254" s="56"/>
+      <c r="E254" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="F254" s="116"/>
-      <c r="G254" s="116"/>
-      <c r="H254" s="116"/>
-      <c r="I254" s="116"/>
-      <c r="J254" s="116"/>
-      <c r="K254" s="116"/>
-      <c r="L254" s="116"/>
+      <c r="F254" s="68"/>
+      <c r="G254" s="68"/>
+      <c r="H254" s="68"/>
+      <c r="I254" s="68"/>
+      <c r="J254" s="68"/>
+      <c r="K254" s="68"/>
+      <c r="L254" s="68"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B255" s="131" t="s">
+      <c r="B255" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C255" s="131"/>
-      <c r="D255" s="131"/>
-      <c r="E255" s="116" t="s">
+      <c r="C255" s="56"/>
+      <c r="D255" s="56"/>
+      <c r="E255" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="F255" s="116"/>
-      <c r="G255" s="116"/>
-      <c r="H255" s="116"/>
-      <c r="I255" s="116"/>
-      <c r="J255" s="116"/>
-      <c r="K255" s="116"/>
-      <c r="L255" s="116"/>
+      <c r="F255" s="68"/>
+      <c r="G255" s="68"/>
+      <c r="H255" s="68"/>
+      <c r="I255" s="68"/>
+      <c r="J255" s="68"/>
+      <c r="K255" s="68"/>
+      <c r="L255" s="68"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B256" s="131" t="s">
+      <c r="B256" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C256" s="131"/>
-      <c r="D256" s="131"/>
-      <c r="E256" s="116" t="s">
+      <c r="C256" s="56"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="F256" s="116"/>
-      <c r="G256" s="116"/>
-      <c r="H256" s="116"/>
-      <c r="I256" s="116"/>
-      <c r="J256" s="116"/>
-      <c r="K256" s="116"/>
-      <c r="L256" s="116"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="I256" s="68"/>
+      <c r="J256" s="68"/>
+      <c r="K256" s="68"/>
+      <c r="L256" s="68"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B257" s="131" t="s">
+      <c r="B257" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C257" s="131"/>
-      <c r="D257" s="131"/>
-      <c r="E257" s="116" t="s">
+      <c r="C257" s="56"/>
+      <c r="D257" s="56"/>
+      <c r="E257" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="F257" s="116"/>
-      <c r="G257" s="116"/>
-      <c r="H257" s="116"/>
-      <c r="I257" s="116"/>
-      <c r="J257" s="116"/>
-      <c r="K257" s="116"/>
-      <c r="L257" s="116"/>
+      <c r="F257" s="68"/>
+      <c r="G257" s="68"/>
+      <c r="H257" s="68"/>
+      <c r="I257" s="68"/>
+      <c r="J257" s="68"/>
+      <c r="K257" s="68"/>
+      <c r="L257" s="68"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B258" s="131" t="s">
+      <c r="B258" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C258" s="131"/>
-      <c r="D258" s="131"/>
-      <c r="E258" s="121" t="s">
+      <c r="C258" s="56"/>
+      <c r="D258" s="56"/>
+      <c r="E258" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F258" s="116"/>
-      <c r="G258" s="116"/>
-      <c r="H258" s="116"/>
-      <c r="I258" s="116"/>
-      <c r="J258" s="116"/>
-      <c r="K258" s="116"/>
-      <c r="L258" s="116"/>
+      <c r="F258" s="68"/>
+      <c r="G258" s="68"/>
+      <c r="H258" s="68"/>
+      <c r="I258" s="68"/>
+      <c r="J258" s="68"/>
+      <c r="K258" s="68"/>
+      <c r="L258" s="68"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B259" s="131" t="s">
+      <c r="B259" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C259" s="131"/>
-      <c r="D259" s="131"/>
-      <c r="E259" s="116" t="s">
+      <c r="C259" s="56"/>
+      <c r="D259" s="56"/>
+      <c r="E259" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="F259" s="116"/>
-      <c r="G259" s="116"/>
-      <c r="H259" s="116"/>
-      <c r="I259" s="116"/>
-      <c r="J259" s="116"/>
-      <c r="K259" s="116"/>
-      <c r="L259" s="116"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="I259" s="68"/>
+      <c r="J259" s="68"/>
+      <c r="K259" s="68"/>
+      <c r="L259" s="68"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B260" s="131" t="s">
+      <c r="B260" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C260" s="131"/>
-      <c r="D260" s="131"/>
-      <c r="E260" s="116" t="s">
+      <c r="C260" s="56"/>
+      <c r="D260" s="56"/>
+      <c r="E260" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="F260" s="116"/>
-      <c r="G260" s="116"/>
-      <c r="H260" s="116"/>
-      <c r="I260" s="116"/>
-      <c r="J260" s="116"/>
-      <c r="K260" s="116"/>
-      <c r="L260" s="116"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
+      <c r="J260" s="68"/>
+      <c r="K260" s="68"/>
+      <c r="L260" s="68"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B261" s="131" t="s">
+      <c r="B261" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C261" s="131"/>
-      <c r="D261" s="131"/>
-      <c r="E261" s="121" t="s">
+      <c r="C261" s="56"/>
+      <c r="D261" s="56"/>
+      <c r="E261" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F261" s="116"/>
-      <c r="G261" s="116"/>
-      <c r="H261" s="116"/>
-      <c r="I261" s="116"/>
-      <c r="J261" s="116"/>
-      <c r="K261" s="116"/>
-      <c r="L261" s="116"/>
+      <c r="F261" s="68"/>
+      <c r="G261" s="68"/>
+      <c r="H261" s="68"/>
+      <c r="I261" s="68"/>
+      <c r="J261" s="68"/>
+      <c r="K261" s="68"/>
+      <c r="L261" s="68"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B262" s="131" t="s">
+      <c r="B262" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C262" s="131"/>
-      <c r="D262" s="131"/>
-      <c r="E262" s="121" t="s">
+      <c r="C262" s="56"/>
+      <c r="D262" s="56"/>
+      <c r="E262" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="F262" s="116"/>
-      <c r="G262" s="116"/>
-      <c r="H262" s="116"/>
-      <c r="I262" s="116"/>
-      <c r="J262" s="116"/>
-      <c r="K262" s="116"/>
-      <c r="L262" s="116"/>
+      <c r="F262" s="68"/>
+      <c r="G262" s="68"/>
+      <c r="H262" s="68"/>
+      <c r="I262" s="68"/>
+      <c r="J262" s="68"/>
+      <c r="K262" s="68"/>
+      <c r="L262" s="68"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B263" s="131" t="s">
+      <c r="B263" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C263" s="131"/>
-      <c r="D263" s="131"/>
-      <c r="E263" s="121" t="s">
+      <c r="C263" s="56"/>
+      <c r="D263" s="56"/>
+      <c r="E263" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F263" s="116"/>
-      <c r="G263" s="116"/>
-      <c r="H263" s="116"/>
-      <c r="I263" s="116"/>
-      <c r="J263" s="116"/>
-      <c r="K263" s="116"/>
-      <c r="L263" s="116"/>
+      <c r="F263" s="68"/>
+      <c r="G263" s="68"/>
+      <c r="H263" s="68"/>
+      <c r="I263" s="68"/>
+      <c r="J263" s="68"/>
+      <c r="K263" s="68"/>
+      <c r="L263" s="68"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F292" s="90" t="s">
+      <c r="F292" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G292" s="90"/>
-      <c r="H292" s="90"/>
-      <c r="I292" s="90"/>
-      <c r="J292" s="90"/>
-      <c r="K292" s="90"/>
-      <c r="L292" s="90"/>
+      <c r="G292" s="63"/>
+      <c r="H292" s="63"/>
+      <c r="I292" s="63"/>
+      <c r="J292" s="63"/>
+      <c r="K292" s="63"/>
+      <c r="L292" s="63"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F293" s="90" t="s">
+      <c r="F293" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G293" s="90"/>
-      <c r="H293" s="90"/>
-      <c r="I293" s="90"/>
-      <c r="J293" s="90"/>
-      <c r="K293" s="90"/>
-      <c r="L293" s="90"/>
+      <c r="G293" s="63"/>
+      <c r="H293" s="63"/>
+      <c r="I293" s="63"/>
+      <c r="J293" s="63"/>
+      <c r="K293" s="63"/>
+      <c r="L293" s="63"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
@@ -4100,15 +4102,15 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
-      <c r="F294" s="92" t="s">
+      <c r="F294" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G294" s="92"/>
-      <c r="H294" s="92"/>
-      <c r="I294" s="92"/>
-      <c r="J294" s="92"/>
-      <c r="K294" s="92"/>
-      <c r="L294" s="92"/>
+      <c r="G294" s="57"/>
+      <c r="H294" s="57"/>
+      <c r="I294" s="57"/>
+      <c r="J294" s="57"/>
+      <c r="K294" s="57"/>
+      <c r="L294" s="57"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
@@ -4116,120 +4118,120 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="92"/>
-      <c r="G295" s="92"/>
-      <c r="H295" s="92"/>
-      <c r="I295" s="92"/>
-      <c r="J295" s="92"/>
-      <c r="K295" s="92"/>
-      <c r="L295" s="92"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="57"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
+      <c r="J295" s="57"/>
+      <c r="K295" s="57"/>
+      <c r="L295" s="57"/>
     </row>
     <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B297" s="107" t="s">
+      <c r="B297" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C297" s="107"/>
-      <c r="D297" s="107"/>
-      <c r="E297" s="107"/>
+      <c r="C297" s="58"/>
+      <c r="D297" s="58"/>
+      <c r="E297" s="58"/>
     </row>
     <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B299" s="122" t="s">
+      <c r="B299" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C299" s="123"/>
-      <c r="D299" s="124"/>
-      <c r="E299" s="122" t="s">
+      <c r="C299" s="65"/>
+      <c r="D299" s="66"/>
+      <c r="E299" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F299" s="123"/>
-      <c r="G299" s="123"/>
-      <c r="H299" s="123"/>
-      <c r="I299" s="123"/>
-      <c r="J299" s="123"/>
-      <c r="K299" s="123"/>
-      <c r="L299" s="124"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
+      <c r="L299" s="66"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B300" s="131" t="s">
+      <c r="B300" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C300" s="131"/>
-      <c r="D300" s="131"/>
-      <c r="E300" s="121" t="s">
+      <c r="C300" s="56"/>
+      <c r="D300" s="56"/>
+      <c r="E300" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F300" s="116"/>
-      <c r="G300" s="116"/>
-      <c r="H300" s="116"/>
-      <c r="I300" s="116"/>
-      <c r="J300" s="116"/>
-      <c r="K300" s="116"/>
-      <c r="L300" s="116"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="I300" s="68"/>
+      <c r="J300" s="68"/>
+      <c r="K300" s="68"/>
+      <c r="L300" s="68"/>
     </row>
     <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="133" t="s">
+      <c r="A301" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B301" s="134" t="s">
+      <c r="B301" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C301" s="134"/>
-      <c r="D301" s="134"/>
-      <c r="E301" s="135" t="s">
+      <c r="C301" s="61"/>
+      <c r="D301" s="61"/>
+      <c r="E301" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="F301" s="135"/>
-      <c r="G301" s="135"/>
-      <c r="H301" s="135"/>
-      <c r="I301" s="135"/>
-      <c r="J301" s="135"/>
-      <c r="K301" s="135"/>
-      <c r="L301" s="135"/>
+      <c r="F301" s="62"/>
+      <c r="G301" s="62"/>
+      <c r="H301" s="62"/>
+      <c r="I301" s="62"/>
+      <c r="J301" s="62"/>
+      <c r="K301" s="62"/>
+      <c r="L301" s="62"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A302" s="133"/>
-      <c r="B302" s="134"/>
-      <c r="C302" s="134"/>
-      <c r="D302" s="134"/>
-      <c r="E302" s="135"/>
-      <c r="F302" s="135"/>
-      <c r="G302" s="135"/>
-      <c r="H302" s="135"/>
-      <c r="I302" s="135"/>
-      <c r="J302" s="135"/>
-      <c r="K302" s="135"/>
-      <c r="L302" s="135"/>
+      <c r="A302" s="60"/>
+      <c r="B302" s="61"/>
+      <c r="C302" s="61"/>
+      <c r="D302" s="61"/>
+      <c r="E302" s="62"/>
+      <c r="F302" s="62"/>
+      <c r="G302" s="62"/>
+      <c r="H302" s="62"/>
+      <c r="I302" s="62"/>
+      <c r="J302" s="62"/>
+      <c r="K302" s="62"/>
+      <c r="L302" s="62"/>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F341" s="90" t="s">
+      <c r="F341" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G341" s="90"/>
-      <c r="H341" s="90"/>
-      <c r="I341" s="90"/>
-      <c r="J341" s="90"/>
-      <c r="K341" s="90"/>
-      <c r="L341" s="90"/>
+      <c r="G341" s="63"/>
+      <c r="H341" s="63"/>
+      <c r="I341" s="63"/>
+      <c r="J341" s="63"/>
+      <c r="K341" s="63"/>
+      <c r="L341" s="63"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F342" s="90" t="s">
+      <c r="F342" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G342" s="90"/>
-      <c r="H342" s="90"/>
-      <c r="I342" s="90"/>
-      <c r="J342" s="90"/>
-      <c r="K342" s="90"/>
-      <c r="L342" s="90"/>
+      <c r="G342" s="63"/>
+      <c r="H342" s="63"/>
+      <c r="I342" s="63"/>
+      <c r="J342" s="63"/>
+      <c r="K342" s="63"/>
+      <c r="L342" s="63"/>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
@@ -4237,15 +4239,15 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
-      <c r="F343" s="92" t="s">
+      <c r="F343" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G343" s="92"/>
-      <c r="H343" s="92"/>
-      <c r="I343" s="92"/>
-      <c r="J343" s="92"/>
-      <c r="K343" s="92"/>
-      <c r="L343" s="92"/>
+      <c r="G343" s="57"/>
+      <c r="H343" s="57"/>
+      <c r="I343" s="57"/>
+      <c r="J343" s="57"/>
+      <c r="K343" s="57"/>
+      <c r="L343" s="57"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
@@ -4253,280 +4255,321 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="92"/>
-      <c r="G344" s="92"/>
-      <c r="H344" s="92"/>
-      <c r="I344" s="92"/>
-      <c r="J344" s="92"/>
-      <c r="K344" s="92"/>
-      <c r="L344" s="92"/>
+      <c r="F344" s="57"/>
+      <c r="G344" s="57"/>
+      <c r="H344" s="57"/>
+      <c r="I344" s="57"/>
+      <c r="J344" s="57"/>
+      <c r="K344" s="57"/>
+      <c r="L344" s="57"/>
     </row>
     <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="35">
         <v>3</v>
       </c>
-      <c r="B346" s="107" t="s">
+      <c r="B346" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C346" s="107"/>
-      <c r="D346" s="107"/>
-      <c r="E346" s="107"/>
+      <c r="C346" s="58"/>
+      <c r="D346" s="58"/>
+      <c r="E346" s="58"/>
     </row>
     <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="35">
         <v>3.1</v>
       </c>
-      <c r="B348" s="107" t="s">
+      <c r="B348" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C348" s="107"/>
-      <c r="D348" s="107"/>
-      <c r="E348" s="107"/>
+      <c r="C348" s="58"/>
+      <c r="D348" s="58"/>
+      <c r="E348" s="58"/>
     </row>
     <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A350" s="132" t="s">
+      <c r="A350" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B350" s="132"/>
-      <c r="C350" s="132" t="s">
+      <c r="B350" s="59"/>
+      <c r="C350" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D350" s="132"/>
-      <c r="E350" s="132"/>
-      <c r="F350" s="132"/>
-      <c r="G350" s="132"/>
-      <c r="H350" s="132"/>
-      <c r="I350" s="132"/>
-      <c r="J350" s="132"/>
-      <c r="K350" s="132"/>
-      <c r="L350" s="132"/>
+      <c r="D350" s="59"/>
+      <c r="E350" s="59"/>
+      <c r="F350" s="59"/>
+      <c r="G350" s="59"/>
+      <c r="H350" s="59"/>
+      <c r="I350" s="59"/>
+      <c r="J350" s="59"/>
+      <c r="K350" s="59"/>
+      <c r="L350" s="59"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="131" t="s">
+      <c r="A351" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B351" s="131"/>
-      <c r="C351" s="136" t="s">
+      <c r="B351" s="56"/>
+      <c r="C351" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D351" s="131"/>
-      <c r="E351" s="131"/>
-      <c r="F351" s="131"/>
-      <c r="G351" s="131"/>
-      <c r="H351" s="131"/>
-      <c r="I351" s="131"/>
-      <c r="J351" s="131"/>
-      <c r="K351" s="131"/>
-      <c r="L351" s="131"/>
+      <c r="D351" s="56"/>
+      <c r="E351" s="56"/>
+      <c r="F351" s="56"/>
+      <c r="G351" s="56"/>
+      <c r="H351" s="56"/>
+      <c r="I351" s="56"/>
+      <c r="J351" s="56"/>
+      <c r="K351" s="56"/>
+      <c r="L351" s="56"/>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="131" t="s">
+      <c r="A352" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B352" s="131"/>
-      <c r="C352" s="131" t="s">
+      <c r="B352" s="56"/>
+      <c r="C352" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D352" s="131"/>
-      <c r="E352" s="131"/>
-      <c r="F352" s="131"/>
-      <c r="G352" s="131"/>
-      <c r="H352" s="131"/>
-      <c r="I352" s="131"/>
-      <c r="J352" s="131"/>
-      <c r="K352" s="131"/>
-      <c r="L352" s="131"/>
+      <c r="D352" s="56"/>
+      <c r="E352" s="56"/>
+      <c r="F352" s="56"/>
+      <c r="G352" s="56"/>
+      <c r="H352" s="56"/>
+      <c r="I352" s="56"/>
+      <c r="J352" s="56"/>
+      <c r="K352" s="56"/>
+      <c r="L352" s="56"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A353" s="131" t="s">
+      <c r="A353" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B353" s="131"/>
-      <c r="C353" s="131" t="s">
+      <c r="B353" s="56"/>
+      <c r="C353" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D353" s="131"/>
-      <c r="E353" s="131"/>
-      <c r="F353" s="131"/>
-      <c r="G353" s="131"/>
-      <c r="H353" s="131"/>
-      <c r="I353" s="131"/>
-      <c r="J353" s="131"/>
-      <c r="K353" s="131"/>
-      <c r="L353" s="131"/>
+      <c r="D353" s="56"/>
+      <c r="E353" s="56"/>
+      <c r="F353" s="56"/>
+      <c r="G353" s="56"/>
+      <c r="H353" s="56"/>
+      <c r="I353" s="56"/>
+      <c r="J353" s="56"/>
+      <c r="K353" s="56"/>
+      <c r="L353" s="56"/>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A354" s="131" t="s">
+      <c r="A354" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B354" s="131"/>
-      <c r="C354" s="131" t="s">
+      <c r="B354" s="56"/>
+      <c r="C354" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="D354" s="131"/>
-      <c r="E354" s="131"/>
-      <c r="F354" s="131"/>
-      <c r="G354" s="131"/>
-      <c r="H354" s="131"/>
-      <c r="I354" s="131"/>
-      <c r="J354" s="131"/>
-      <c r="K354" s="131"/>
-      <c r="L354" s="131"/>
+      <c r="D354" s="56"/>
+      <c r="E354" s="56"/>
+      <c r="F354" s="56"/>
+      <c r="G354" s="56"/>
+      <c r="H354" s="56"/>
+      <c r="I354" s="56"/>
+      <c r="J354" s="56"/>
+      <c r="K354" s="56"/>
+      <c r="L354" s="56"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A355" s="131" t="s">
+      <c r="A355" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B355" s="131"/>
-      <c r="C355" s="136" t="s">
+      <c r="B355" s="56"/>
+      <c r="C355" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D355" s="131"/>
-      <c r="E355" s="131"/>
-      <c r="F355" s="131"/>
-      <c r="G355" s="131"/>
-      <c r="H355" s="131"/>
-      <c r="I355" s="131"/>
-      <c r="J355" s="131"/>
-      <c r="K355" s="131"/>
-      <c r="L355" s="131"/>
+      <c r="D355" s="56"/>
+      <c r="E355" s="56"/>
+      <c r="F355" s="56"/>
+      <c r="G355" s="56"/>
+      <c r="H355" s="56"/>
+      <c r="I355" s="56"/>
+      <c r="J355" s="56"/>
+      <c r="K355" s="56"/>
+      <c r="L355" s="56"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A356" s="131" t="s">
+      <c r="A356" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B356" s="131"/>
-      <c r="C356" s="131" t="s">
+      <c r="B356" s="56"/>
+      <c r="C356" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D356" s="131"/>
-      <c r="E356" s="131"/>
-      <c r="F356" s="131"/>
-      <c r="G356" s="131"/>
-      <c r="H356" s="131"/>
-      <c r="I356" s="131"/>
-      <c r="J356" s="131"/>
-      <c r="K356" s="131"/>
-      <c r="L356" s="131"/>
+      <c r="D356" s="56"/>
+      <c r="E356" s="56"/>
+      <c r="F356" s="56"/>
+      <c r="G356" s="56"/>
+      <c r="H356" s="56"/>
+      <c r="I356" s="56"/>
+      <c r="J356" s="56"/>
+      <c r="K356" s="56"/>
+      <c r="L356" s="56"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A357" s="131" t="s">
+      <c r="A357" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B357" s="131"/>
-      <c r="C357" s="136" t="s">
+      <c r="B357" s="56"/>
+      <c r="C357" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D357" s="131"/>
-      <c r="E357" s="131"/>
-      <c r="F357" s="131"/>
-      <c r="G357" s="131"/>
-      <c r="H357" s="131"/>
-      <c r="I357" s="131"/>
-      <c r="J357" s="131"/>
-      <c r="K357" s="131"/>
-      <c r="L357" s="131"/>
+      <c r="D357" s="56"/>
+      <c r="E357" s="56"/>
+      <c r="F357" s="56"/>
+      <c r="G357" s="56"/>
+      <c r="H357" s="56"/>
+      <c r="I357" s="56"/>
+      <c r="J357" s="56"/>
+      <c r="K357" s="56"/>
+      <c r="L357" s="56"/>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A358" s="131" t="s">
+      <c r="A358" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B358" s="131"/>
-      <c r="C358" s="131" t="s">
+      <c r="B358" s="56"/>
+      <c r="C358" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D358" s="131"/>
-      <c r="E358" s="131"/>
-      <c r="F358" s="131"/>
-      <c r="G358" s="131"/>
-      <c r="H358" s="131"/>
-      <c r="I358" s="131"/>
-      <c r="J358" s="131"/>
-      <c r="K358" s="131"/>
-      <c r="L358" s="131"/>
+      <c r="D358" s="56"/>
+      <c r="E358" s="56"/>
+      <c r="F358" s="56"/>
+      <c r="G358" s="56"/>
+      <c r="H358" s="56"/>
+      <c r="I358" s="56"/>
+      <c r="J358" s="56"/>
+      <c r="K358" s="56"/>
+      <c r="L358" s="56"/>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A359" s="131" t="s">
+      <c r="A359" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B359" s="131"/>
-      <c r="C359" s="131" t="s">
+      <c r="B359" s="56"/>
+      <c r="C359" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D359" s="131"/>
-      <c r="E359" s="131"/>
-      <c r="F359" s="131"/>
-      <c r="G359" s="131"/>
-      <c r="H359" s="131"/>
-      <c r="I359" s="131"/>
-      <c r="J359" s="131"/>
-      <c r="K359" s="131"/>
-      <c r="L359" s="131"/>
+      <c r="D359" s="56"/>
+      <c r="E359" s="56"/>
+      <c r="F359" s="56"/>
+      <c r="G359" s="56"/>
+      <c r="H359" s="56"/>
+      <c r="I359" s="56"/>
+      <c r="J359" s="56"/>
+      <c r="K359" s="56"/>
+      <c r="L359" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C355:L355"/>
-    <mergeCell ref="C354:L354"/>
-    <mergeCell ref="C353:L353"/>
-    <mergeCell ref="C352:L352"/>
-    <mergeCell ref="C351:L351"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="C359:L359"/>
-    <mergeCell ref="C358:L358"/>
-    <mergeCell ref="C357:L357"/>
-    <mergeCell ref="C356:L356"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="F343:L344"/>
-    <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="C350:L350"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:D302"/>
-    <mergeCell ref="E301:L302"/>
-    <mergeCell ref="F341:L341"/>
-    <mergeCell ref="F342:L342"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="E299:L299"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="E300:L300"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="E262:L262"/>
-    <mergeCell ref="B263:D263"/>
-    <mergeCell ref="E263:L263"/>
-    <mergeCell ref="B297:E297"/>
-    <mergeCell ref="F292:L292"/>
-    <mergeCell ref="F293:L293"/>
-    <mergeCell ref="F294:L295"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="F243:L243"/>
-    <mergeCell ref="F244:L244"/>
-    <mergeCell ref="F245:L246"/>
-    <mergeCell ref="B248:E248"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B261:D261"/>
-    <mergeCell ref="E253:L253"/>
-    <mergeCell ref="E254:L254"/>
-    <mergeCell ref="E255:L255"/>
-    <mergeCell ref="E256:L256"/>
-    <mergeCell ref="E257:L257"/>
-    <mergeCell ref="E258:L258"/>
-    <mergeCell ref="E259:L259"/>
-    <mergeCell ref="E260:L260"/>
-    <mergeCell ref="E261:L261"/>
-    <mergeCell ref="B255:D255"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C18:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F50:L51"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="F96:L96"/>
+    <mergeCell ref="F97:L97"/>
+    <mergeCell ref="F98:L99"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="F145:L145"/>
+    <mergeCell ref="F146:L146"/>
+    <mergeCell ref="F147:L148"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="A200:L201"/>
+    <mergeCell ref="A202:L202"/>
+    <mergeCell ref="A164:G164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="F194:L194"/>
+    <mergeCell ref="F195:L195"/>
+    <mergeCell ref="F196:L197"/>
+    <mergeCell ref="B219:D226"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="E219:L219"/>
+    <mergeCell ref="H220:L220"/>
+    <mergeCell ref="A205:L214"/>
+    <mergeCell ref="E216:L216"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="E217:L217"/>
+    <mergeCell ref="E218:L218"/>
+    <mergeCell ref="H221:L221"/>
+    <mergeCell ref="H222:L222"/>
+    <mergeCell ref="H223:L223"/>
+    <mergeCell ref="H224:L224"/>
     <mergeCell ref="A228:A229"/>
     <mergeCell ref="A232:A234"/>
     <mergeCell ref="B228:D229"/>
@@ -4551,109 +4594,68 @@
     <mergeCell ref="F233:G233"/>
     <mergeCell ref="F234:G234"/>
     <mergeCell ref="H226:L226"/>
-    <mergeCell ref="B219:D226"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="E219:L219"/>
-    <mergeCell ref="H220:L220"/>
-    <mergeCell ref="A205:L214"/>
-    <mergeCell ref="E216:L216"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="E217:L217"/>
-    <mergeCell ref="E218:L218"/>
-    <mergeCell ref="H221:L221"/>
-    <mergeCell ref="H222:L222"/>
-    <mergeCell ref="H223:L223"/>
-    <mergeCell ref="H224:L224"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="A200:L201"/>
-    <mergeCell ref="A202:L202"/>
-    <mergeCell ref="A164:G164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="F194:L194"/>
-    <mergeCell ref="F195:L195"/>
-    <mergeCell ref="F196:L197"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="F145:L145"/>
-    <mergeCell ref="F146:L146"/>
-    <mergeCell ref="F147:L148"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="F96:L96"/>
-    <mergeCell ref="F97:L97"/>
-    <mergeCell ref="F98:L99"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F50:L51"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C18:J21"/>
-    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="F243:L243"/>
+    <mergeCell ref="F244:L244"/>
+    <mergeCell ref="F245:L246"/>
+    <mergeCell ref="B248:E248"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="E253:L253"/>
+    <mergeCell ref="E254:L254"/>
+    <mergeCell ref="E255:L255"/>
+    <mergeCell ref="E256:L256"/>
+    <mergeCell ref="E257:L257"/>
+    <mergeCell ref="E258:L258"/>
+    <mergeCell ref="E259:L259"/>
+    <mergeCell ref="E260:L260"/>
+    <mergeCell ref="E261:L261"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="E299:L299"/>
+    <mergeCell ref="B300:D300"/>
+    <mergeCell ref="E300:L300"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="E262:L262"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="E263:L263"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="F292:L292"/>
+    <mergeCell ref="F293:L293"/>
+    <mergeCell ref="F294:L295"/>
+    <mergeCell ref="F343:L344"/>
+    <mergeCell ref="B346:E346"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="C350:L350"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:D302"/>
+    <mergeCell ref="E301:L302"/>
+    <mergeCell ref="F341:L341"/>
+    <mergeCell ref="F342:L342"/>
+    <mergeCell ref="C355:L355"/>
+    <mergeCell ref="C354:L354"/>
+    <mergeCell ref="C353:L353"/>
+    <mergeCell ref="C352:L352"/>
+    <mergeCell ref="C351:L351"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="C359:L359"/>
+    <mergeCell ref="C358:L358"/>
+    <mergeCell ref="C357:L357"/>
+    <mergeCell ref="C356:L356"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="A355:B355"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsoleApps/ProductTreeIT.xlsx
+++ b/ConsoleApps/ProductTreeIT.xlsx
@@ -37,9 +37,6 @@
     <t>&lt;projName&gt;</t>
   </si>
   <si>
-    <t>&lt;system&gt; &lt;subSystem&gt;</t>
-  </si>
-  <si>
     <t>&lt;totPages&gt;</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>&lt;reportDate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;system&gt;</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -1928,7 +1928,7 @@
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -1978,7 +1978,7 @@
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="128"/>
       <c r="E14" s="128"/>
@@ -2081,7 +2081,7 @@
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="C22" s="134" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="D22" s="135"/>
       <c r="E22" s="135"/>
@@ -2105,7 +2105,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
       <c r="C24" s="118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="119"/>
       <c r="E24" s="119"/>
@@ -2130,7 +2130,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="119"/>
       <c r="E26" s="119"/>
@@ -2169,11 +2169,11 @@
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="123"/>
       <c r="F33" s="123"/>
@@ -2197,11 +2197,11 @@
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="115"/>
       <c r="F35" s="115"/>
@@ -2215,7 +2215,7 @@
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
       <c r="D36" s="114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="115"/>
@@ -2229,7 +2229,7 @@
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
       <c r="D37" s="114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="115"/>
       <c r="F37" s="115"/>
@@ -2243,7 +2243,7 @@
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
       <c r="D38" s="114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="115"/>
       <c r="F38" s="115"/>
@@ -2257,7 +2257,7 @@
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="115"/>
       <c r="F39" s="115"/>
@@ -2269,11 +2269,11 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="70"/>
       <c r="D40" s="117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="117"/>
       <c r="F40" s="117"/>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F53" s="113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="113"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="99"/>
       <c r="C56" s="99"/>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="102"/>
       <c r="C57" s="102"/>
@@ -2466,7 +2466,7 @@
       <c r="E57" s="102"/>
       <c r="F57" s="103"/>
       <c r="G57" s="109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" s="110"/>
       <c r="I57" s="110"/>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="99"/>
       <c r="C60" s="99"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="102"/>
       <c r="C61" s="102"/>
@@ -2530,7 +2530,7 @@
       <c r="E61" s="102"/>
       <c r="F61" s="103"/>
       <c r="G61" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H61" s="110"/>
       <c r="I61" s="110"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="E65" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="89"/>
       <c r="G65" s="89"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="105"/>
       <c r="C67" s="105"/>
@@ -2573,7 +2573,7 @@
       <c r="E67" s="105"/>
       <c r="F67" s="106"/>
       <c r="G67" s="107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="107"/>
       <c r="I67" s="107"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="99"/>
       <c r="C68" s="99"/>
@@ -2591,7 +2591,7 @@
       <c r="E68" s="99"/>
       <c r="F68" s="100"/>
       <c r="G68" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="96"/>
       <c r="C69" s="96"/>
@@ -2609,7 +2609,7 @@
       <c r="E69" s="96"/>
       <c r="F69" s="97"/>
       <c r="G69" s="99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="99"/>
       <c r="I69" s="99"/>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="96"/>
       <c r="C70" s="96"/>
@@ -2627,7 +2627,7 @@
       <c r="E70" s="96"/>
       <c r="F70" s="97"/>
       <c r="G70" s="98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="102"/>
       <c r="C71" s="102"/>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="96" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F96" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G96" s="63"/>
       <c r="H96" s="63"/>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D101" s="89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" s="89"/>
       <c r="F101" s="89"/>
@@ -2728,35 +2728,35 @@
     </row>
     <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B103" s="93"/>
       <c r="C103" s="92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="93"/>
       <c r="E103" s="92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" s="93"/>
       <c r="G103" s="92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103" s="94"/>
       <c r="I103" s="93"/>
       <c r="J103" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K103" s="94"/>
       <c r="L103" s="93"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" s="90"/>
       <c r="C104" s="90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104" s="90"/>
       <c r="E104" s="90" t="s">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="F104" s="90"/>
       <c r="G104" s="90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104" s="90"/>
       <c r="I104" s="90"/>
       <c r="J104" s="90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K104" s="90"/>
       <c r="L104" s="90"/>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F145" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G145" s="63"/>
       <c r="H145" s="63"/>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="E150" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F150" s="89"/>
       <c r="G150" s="89"/>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152" s="91"/>
       <c r="D152" s="54"/>
@@ -2915,7 +2915,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D153" s="51"/>
       <c r="E153" s="51"/>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" s="50"/>
       <c r="D154" s="50"/>
@@ -2955,7 +2955,7 @@
         <v>2.1</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
@@ -2975,7 +2975,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
@@ -2994,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="50"/>
       <c r="D157" s="50"/>
@@ -3015,7 +3015,7 @@
         <v>3.1</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="51"/>
@@ -3031,14 +3031,14 @@
     </row>
     <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="E162" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F162" s="89"/>
       <c r="G162" s="89"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" s="74"/>
       <c r="C164" s="74"/>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D167" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E167" s="89"/>
       <c r="F167" s="89"/>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F194" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G194" s="63"/>
       <c r="H194" s="63"/>
@@ -3148,14 +3148,14 @@
         <v>1</v>
       </c>
       <c r="B199" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C199" s="58"/>
       <c r="D199" s="58"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B200" s="84"/>
       <c r="C200" s="84"/>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B202" s="84"/>
       <c r="C202" s="84"/>
@@ -3204,13 +3204,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B204" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C204" s="58"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B205" s="84"/>
       <c r="C205" s="84"/>
@@ -3352,15 +3352,15 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B216" s="85" t="s">
         <v>48</v>
-      </c>
-      <c r="B216" s="85" t="s">
-        <v>49</v>
       </c>
       <c r="C216" s="85"/>
       <c r="D216" s="85"/>
       <c r="E216" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F216" s="85"/>
       <c r="G216" s="85"/>
@@ -3375,12 +3375,12 @@
         <v>1</v>
       </c>
       <c r="B217" s="86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C217" s="86"/>
       <c r="D217" s="86"/>
       <c r="E217" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F217" s="68"/>
       <c r="G217" s="68"/>
@@ -3395,12 +3395,12 @@
         <v>2</v>
       </c>
       <c r="B218" s="86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C218" s="86"/>
       <c r="D218" s="86"/>
       <c r="E218" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F218" s="68"/>
       <c r="G218" s="68"/>
@@ -3415,12 +3415,12 @@
         <v>3</v>
       </c>
       <c r="B219" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C219" s="81"/>
       <c r="D219" s="81"/>
       <c r="E219" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F219" s="82"/>
       <c r="G219" s="82"/>
@@ -3436,14 +3436,14 @@
       <c r="C220" s="81"/>
       <c r="D220" s="81"/>
       <c r="E220" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F220" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G220" s="40"/>
       <c r="H220" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I220" s="72"/>
       <c r="J220" s="72"/>
@@ -3456,14 +3456,14 @@
       <c r="C221" s="81"/>
       <c r="D221" s="81"/>
       <c r="E221" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F221" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G221" s="40"/>
       <c r="H221" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I221" s="72"/>
       <c r="J221" s="72"/>
@@ -3476,14 +3476,14 @@
       <c r="C222" s="81"/>
       <c r="D222" s="81"/>
       <c r="E222" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F222" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G222" s="40"/>
       <c r="H222" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I222" s="87"/>
       <c r="J222" s="87"/>
@@ -3496,14 +3496,14 @@
       <c r="C223" s="81"/>
       <c r="D223" s="81"/>
       <c r="E223" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F223" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G223" s="40"/>
       <c r="H223" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I223" s="72"/>
       <c r="J223" s="72"/>
@@ -3516,14 +3516,14 @@
       <c r="C224" s="81"/>
       <c r="D224" s="81"/>
       <c r="E224" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F224" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G224" s="40"/>
       <c r="H224" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I224" s="72"/>
       <c r="J224" s="72"/>
@@ -3536,14 +3536,14 @@
       <c r="C225" s="81"/>
       <c r="D225" s="81"/>
       <c r="E225" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F225" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G225" s="40"/>
       <c r="H225" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I225" s="72"/>
       <c r="J225" s="72"/>
@@ -3556,14 +3556,14 @@
       <c r="C226" s="81"/>
       <c r="D226" s="81"/>
       <c r="E226" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F226" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G226" s="41"/>
       <c r="H226" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I226" s="79"/>
       <c r="J226" s="79"/>
@@ -3575,12 +3575,12 @@
         <v>4</v>
       </c>
       <c r="B227" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C227" s="70"/>
       <c r="D227" s="70"/>
       <c r="E227" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F227" s="71"/>
       <c r="G227" s="71"/>
@@ -3595,12 +3595,12 @@
         <v>5</v>
       </c>
       <c r="B228" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C228" s="69"/>
       <c r="D228" s="69"/>
       <c r="E228" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F228" s="68"/>
       <c r="G228" s="68"/>
@@ -3629,12 +3629,12 @@
         <v>6</v>
       </c>
       <c r="B230" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C230" s="70"/>
       <c r="D230" s="70"/>
       <c r="E230" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F230" s="68"/>
       <c r="G230" s="68"/>
@@ -3649,12 +3649,12 @@
         <v>7</v>
       </c>
       <c r="B231" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C231" s="70"/>
       <c r="D231" s="70"/>
       <c r="E231" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F231" s="68"/>
       <c r="G231" s="68"/>
@@ -3669,12 +3669,12 @@
         <v>8</v>
       </c>
       <c r="B232" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C232" s="69"/>
       <c r="D232" s="69"/>
       <c r="E232" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F232" s="68"/>
       <c r="G232" s="68"/>
@@ -3690,14 +3690,14 @@
       <c r="C233" s="69"/>
       <c r="D233" s="69"/>
       <c r="E233" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F233" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G233" s="78"/>
       <c r="H233" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I233" s="76"/>
       <c r="J233" s="76"/>
@@ -3710,14 +3710,14 @@
       <c r="C234" s="69"/>
       <c r="D234" s="69"/>
       <c r="E234" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F234" s="78" t="s">
         <v>87</v>
-      </c>
-      <c r="F234" s="78" t="s">
-        <v>88</v>
       </c>
       <c r="G234" s="78"/>
       <c r="H234" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I234" s="76"/>
       <c r="J234" s="76"/>
@@ -3729,12 +3729,12 @@
         <v>9</v>
       </c>
       <c r="B235" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C235" s="75"/>
       <c r="D235" s="75"/>
       <c r="E235" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F235" s="68"/>
       <c r="G235" s="68"/>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B236" s="74"/>
       <c r="C236" s="74"/>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F243" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G243" s="63"/>
       <c r="H243" s="63"/>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C248" s="58"/>
       <c r="D248" s="58"/>
@@ -3828,7 +3828,7 @@
         <v>2.1</v>
       </c>
       <c r="B250" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C250" s="58"/>
       <c r="D250" s="58"/>
@@ -3836,15 +3836,15 @@
     </row>
     <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B252" s="64" t="s">
         <v>94</v>
-      </c>
-      <c r="B252" s="64" t="s">
-        <v>95</v>
       </c>
       <c r="C252" s="65"/>
       <c r="D252" s="66"/>
       <c r="E252" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65"/>
@@ -3856,15 +3856,15 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B253" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C253" s="56"/>
       <c r="D253" s="56"/>
       <c r="E253" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F253" s="68"/>
       <c r="G253" s="68"/>
@@ -3876,15 +3876,15 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B254" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C254" s="56"/>
       <c r="D254" s="56"/>
       <c r="E254" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F254" s="68"/>
       <c r="G254" s="68"/>
@@ -3896,15 +3896,15 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B255" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C255" s="56"/>
       <c r="D255" s="56"/>
       <c r="E255" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F255" s="68"/>
       <c r="G255" s="68"/>
@@ -3916,15 +3916,15 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B256" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C256" s="56"/>
       <c r="D256" s="56"/>
       <c r="E256" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F256" s="68"/>
       <c r="G256" s="68"/>
@@ -3936,15 +3936,15 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B257" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C257" s="56"/>
       <c r="D257" s="56"/>
       <c r="E257" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F257" s="68"/>
       <c r="G257" s="68"/>
@@ -3956,15 +3956,15 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B258" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C258" s="56"/>
       <c r="D258" s="56"/>
       <c r="E258" s="67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F258" s="68"/>
       <c r="G258" s="68"/>
@@ -3976,15 +3976,15 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B259" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C259" s="56"/>
       <c r="D259" s="56"/>
       <c r="E259" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F259" s="68"/>
       <c r="G259" s="68"/>
@@ -3996,15 +3996,15 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B260" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C260" s="56"/>
       <c r="D260" s="56"/>
       <c r="E260" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F260" s="68"/>
       <c r="G260" s="68"/>
@@ -4016,15 +4016,15 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B261" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C261" s="56"/>
       <c r="D261" s="56"/>
       <c r="E261" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F261" s="68"/>
       <c r="G261" s="68"/>
@@ -4036,15 +4036,15 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B262" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C262" s="56"/>
       <c r="D262" s="56"/>
       <c r="E262" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F262" s="68"/>
       <c r="G262" s="68"/>
@@ -4056,15 +4056,15 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B263" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C263" s="56"/>
       <c r="D263" s="56"/>
       <c r="E263" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F263" s="68"/>
       <c r="G263" s="68"/>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F292" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G292" s="63"/>
       <c r="H292" s="63"/>
@@ -4131,7 +4131,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B297" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C297" s="58"/>
       <c r="D297" s="58"/>
@@ -4139,15 +4139,15 @@
     </row>
     <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B299" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C299" s="65"/>
       <c r="D299" s="66"/>
       <c r="E299" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F299" s="65"/>
       <c r="G299" s="65"/>
@@ -4159,15 +4159,15 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B300" s="56" t="s">
         <v>134</v>
-      </c>
-      <c r="B300" s="56" t="s">
-        <v>135</v>
       </c>
       <c r="C300" s="56"/>
       <c r="D300" s="56"/>
       <c r="E300" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F300" s="68"/>
       <c r="G300" s="68"/>
@@ -4179,15 +4179,15 @@
     </row>
     <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B301" s="61" t="s">
         <v>137</v>
-      </c>
-      <c r="B301" s="61" t="s">
-        <v>138</v>
       </c>
       <c r="C301" s="61"/>
       <c r="D301" s="61"/>
       <c r="E301" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F301" s="62"/>
       <c r="G301" s="62"/>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F341" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G341" s="63"/>
       <c r="H341" s="63"/>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="B346" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C346" s="58"/>
       <c r="D346" s="58"/>
@@ -4279,7 +4279,7 @@
         <v>3.1</v>
       </c>
       <c r="B348" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C348" s="58"/>
       <c r="D348" s="58"/>
@@ -4287,11 +4287,11 @@
     </row>
     <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B350" s="59"/>
       <c r="C350" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D350" s="59"/>
       <c r="E350" s="59"/>
@@ -4305,11 +4305,11 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B351" s="56"/>
       <c r="C351" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D351" s="56"/>
       <c r="E351" s="56"/>
@@ -4323,11 +4323,11 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B352" s="56"/>
       <c r="C352" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D352" s="56"/>
       <c r="E352" s="56"/>
@@ -4341,11 +4341,11 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B353" s="56"/>
       <c r="C353" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D353" s="56"/>
       <c r="E353" s="56"/>
@@ -4359,11 +4359,11 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B354" s="56"/>
       <c r="C354" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D354" s="56"/>
       <c r="E354" s="56"/>
@@ -4377,11 +4377,11 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B355" s="56"/>
       <c r="C355" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D355" s="56"/>
       <c r="E355" s="56"/>
@@ -4395,11 +4395,11 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B356" s="56"/>
       <c r="C356" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D356" s="56"/>
       <c r="E356" s="56"/>
@@ -4413,11 +4413,11 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B357" s="56"/>
       <c r="C357" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D357" s="56"/>
       <c r="E357" s="56"/>
@@ -4431,11 +4431,11 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B358" s="56"/>
       <c r="C358" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D358" s="56"/>
       <c r="E358" s="56"/>
@@ -4449,11 +4449,11 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B359" s="56"/>
       <c r="C359" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D359" s="56"/>
       <c r="E359" s="56"/>
@@ -4675,11 +4675,16 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;Rpagina &amp;P di &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>